--- a/Grade 2018/ProjectScores/NIIT-Project-Score-ZW-2018.xlsx
+++ b/Grade 2018/ProjectScores/NIIT-Project-Score-ZW-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Sept 2020 - Jan 2021\Grade 2018\ProjectScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6604439-5E0D-4EEF-9D92-354A89D14E69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5628A4B6-2731-4CF4-AA67-739D7945776F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CC1_ZW" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="466">
   <si>
     <t>Trainer</t>
   </si>
@@ -1421,6 +1421,12 @@
   </si>
   <si>
     <t>Batch# NIIT2</t>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>田嘉喜</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1738,14 +1744,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1753,8 +1762,14 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1774,28 +1789,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1816,6 +1813,15 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1824,6 +1830,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1834,11 +1846,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2181,19 +2196,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
@@ -2215,46 +2230,46 @@
       <c r="F1" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="33" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="33"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
@@ -2275,13 +2290,13 @@
       <c r="F3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="33"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="35"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
@@ -2296,8 +2311,8 @@
       <c r="D4" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -2322,15 +2337,15 @@
       <c r="D5" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13">
-        <f t="shared" ref="L5:L45" si="0">SUM(G5:K5)</f>
+        <f t="shared" ref="L5:L46" si="0">SUM(G5:K5)</f>
         <v>0</v>
       </c>
       <c r="M5" s="19"/>
@@ -2348,8 +2363,8 @@
       <c r="D6" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -2374,8 +2389,8 @@
       <c r="D7" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -2400,8 +2415,8 @@
       <c r="D8" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -2426,8 +2441,8 @@
       <c r="D9" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -2452,8 +2467,8 @@
       <c r="D10" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -2478,8 +2493,8 @@
       <c r="D11" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -2504,8 +2519,8 @@
       <c r="D12" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -2530,8 +2545,8 @@
       <c r="D13" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -2556,8 +2571,8 @@
       <c r="D14" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -2582,8 +2597,8 @@
       <c r="D15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -2608,8 +2623,8 @@
       <c r="D16" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -2634,8 +2649,8 @@
       <c r="D17" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -2660,8 +2675,8 @@
       <c r="D18" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -2686,8 +2701,8 @@
       <c r="D19" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -2712,8 +2727,8 @@
       <c r="D20" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -2738,8 +2753,8 @@
       <c r="D21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -2764,8 +2779,8 @@
       <c r="D22" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -2790,8 +2805,8 @@
       <c r="D23" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -2816,8 +2831,8 @@
       <c r="D24" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="38"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -2842,8 +2857,8 @@
       <c r="D25" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="38"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -2868,8 +2883,8 @@
       <c r="D26" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="38"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -2894,8 +2909,8 @@
       <c r="D27" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="38"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -2920,8 +2935,8 @@
       <c r="D28" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -2946,8 +2961,8 @@
       <c r="D29" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -2972,8 +2987,8 @@
       <c r="D30" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -2998,8 +3013,8 @@
       <c r="D31" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -3024,8 +3039,8 @@
       <c r="D32" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -3050,8 +3065,8 @@
       <c r="D33" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -3076,8 +3091,8 @@
       <c r="D34" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -3102,8 +3117,8 @@
       <c r="D35" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -3128,8 +3143,8 @@
       <c r="D36" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -3154,8 +3169,8 @@
       <c r="D37" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
@@ -3180,8 +3195,8 @@
       <c r="D38" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
@@ -3206,8 +3221,8 @@
       <c r="D39" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
@@ -3232,8 +3247,8 @@
       <c r="D40" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
@@ -3258,8 +3273,8 @@
       <c r="D41" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
@@ -3284,8 +3299,8 @@
       <c r="D42" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
@@ -3310,8 +3325,8 @@
       <c r="D43" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
@@ -3336,8 +3351,8 @@
       <c r="D44" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
@@ -3354,46 +3369,56 @@
         <v>42</v>
       </c>
       <c r="B45" s="15">
-        <v>12017245779</v>
+        <v>12016246281</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>363</v>
+        <v>465</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
+        <v>464</v>
+      </c>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
-      <c r="L45" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L45" s="13"/>
       <c r="M45" s="19"/>
     </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
+        <v>43</v>
+      </c>
+      <c r="B46" s="15">
+        <v>12017245779</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
+  <mergeCells count="31">
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="E41:E45"/>
-    <mergeCell ref="F41:F45"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -3405,7 +3430,22 @@
     <mergeCell ref="F28:F31"/>
     <mergeCell ref="E32:E35"/>
     <mergeCell ref="F32:F35"/>
-    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3447,46 +3487,46 @@
       <c r="F1" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="45" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="39" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="25"/>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="45"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
@@ -3507,13 +3547,13 @@
       <c r="F3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="45"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="39"/>
     </row>
     <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
@@ -3528,8 +3568,8 @@
       <c r="D4" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -3554,8 +3594,8 @@
       <c r="D5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -3580,8 +3620,8 @@
       <c r="D6" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -3606,8 +3646,8 @@
       <c r="D7" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -3632,8 +3672,8 @@
       <c r="D8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -3658,8 +3698,8 @@
       <c r="D9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -3684,8 +3724,8 @@
       <c r="D10" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -3710,8 +3750,8 @@
       <c r="D11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -3736,8 +3776,8 @@
       <c r="D12" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -3762,8 +3802,8 @@
       <c r="D13" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -3788,8 +3828,8 @@
       <c r="D14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -3814,8 +3854,8 @@
       <c r="D15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -3840,8 +3880,8 @@
       <c r="D16" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -3866,8 +3906,8 @@
       <c r="D17" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -3892,8 +3932,8 @@
       <c r="D18" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -3918,8 +3958,8 @@
       <c r="D19" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -3944,8 +3984,8 @@
       <c r="D20" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -3970,8 +4010,8 @@
       <c r="D21" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -3996,8 +4036,8 @@
       <c r="D22" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -4022,8 +4062,8 @@
       <c r="D23" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -4048,8 +4088,8 @@
       <c r="D24" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -4074,8 +4114,8 @@
       <c r="D25" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -4100,8 +4140,8 @@
       <c r="D26" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="46"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -4126,8 +4166,8 @@
       <c r="D27" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -4152,8 +4192,8 @@
       <c r="D28" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -4178,8 +4218,8 @@
       <c r="D29" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="46"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -4204,8 +4244,8 @@
       <c r="D30" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="46"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -4230,8 +4270,8 @@
       <c r="D31" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -4256,8 +4296,8 @@
       <c r="D32" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -4282,8 +4322,8 @@
       <c r="D33" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="46"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -4308,8 +4348,8 @@
       <c r="D34" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="46"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -4334,8 +4374,8 @@
       <c r="D35" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -4360,8 +4400,8 @@
       <c r="D36" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -4386,8 +4426,8 @@
       <c r="D37" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="46"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
@@ -4412,8 +4452,8 @@
       <c r="D38" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="46"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
@@ -4438,8 +4478,8 @@
       <c r="D39" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
@@ -4464,8 +4504,8 @@
       <c r="D40" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
@@ -4490,8 +4530,8 @@
       <c r="D41" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="46"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
@@ -4516,8 +4556,8 @@
       <c r="D42" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="46"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
@@ -4542,8 +4582,8 @@
       <c r="D43" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="47"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
@@ -4557,21 +4597,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="F40:F43"/>
     <mergeCell ref="E16:E19"/>
@@ -4586,6 +4611,21 @@
     <mergeCell ref="F32:F35"/>
     <mergeCell ref="E36:E39"/>
     <mergeCell ref="F36:F39"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4627,26 +4667,26 @@
       </c>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="35" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="25"/>
       <c r="G2" s="49" t="s">
         <v>4</v>
@@ -4666,7 +4706,7 @@
       <c r="L2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="35"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
@@ -4693,7 +4733,7 @@
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
-      <c r="M3" s="35"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
@@ -4708,8 +4748,8 @@
       <c r="D4" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4734,8 +4774,8 @@
       <c r="D5" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4760,8 +4800,8 @@
       <c r="D6" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4786,8 +4826,8 @@
       <c r="D7" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4812,8 +4852,8 @@
       <c r="D8" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4838,8 +4878,8 @@
       <c r="D9" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -4864,8 +4904,8 @@
       <c r="D10" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -4890,8 +4930,8 @@
       <c r="D11" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -4916,8 +4956,8 @@
       <c r="D12" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -4942,8 +4982,8 @@
       <c r="D13" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -4968,8 +5008,8 @@
       <c r="D14" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -4994,8 +5034,8 @@
       <c r="D15" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -5020,8 +5060,8 @@
       <c r="D16" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -5046,8 +5086,8 @@
       <c r="D17" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -5072,8 +5112,8 @@
       <c r="D18" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -5098,8 +5138,8 @@
       <c r="D19" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -5125,7 +5165,7 @@
         <v>189</v>
       </c>
       <c r="E20" s="27"/>
-      <c r="F20" s="39"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -5151,7 +5191,7 @@
         <v>175</v>
       </c>
       <c r="E21" s="28"/>
-      <c r="F21" s="40"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -5177,7 +5217,7 @@
         <v>171</v>
       </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="40"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -5203,7 +5243,7 @@
         <v>182</v>
       </c>
       <c r="E23" s="29"/>
-      <c r="F23" s="41"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -5228,8 +5268,8 @@
       <c r="D24" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -5254,8 +5294,8 @@
       <c r="D25" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -5280,8 +5320,8 @@
       <c r="D26" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -5306,8 +5346,8 @@
       <c r="D27" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -5332,8 +5372,8 @@
       <c r="D28" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -5358,8 +5398,8 @@
       <c r="D29" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -5384,8 +5424,8 @@
       <c r="D30" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -5410,8 +5450,8 @@
       <c r="D31" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -5436,8 +5476,8 @@
       <c r="D32" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -5462,8 +5502,8 @@
       <c r="D33" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -5488,8 +5528,8 @@
       <c r="D34" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -5514,8 +5554,8 @@
       <c r="D35" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -5540,8 +5580,8 @@
       <c r="D36" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -5566,8 +5606,8 @@
       <c r="D37" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -5592,8 +5632,8 @@
       <c r="D38" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -5618,8 +5658,8 @@
       <c r="D39" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -5644,8 +5684,8 @@
       <c r="D40" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -5670,8 +5710,8 @@
       <c r="D41" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -5696,8 +5736,8 @@
       <c r="D42" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -5711,17 +5751,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B2:E2"/>
@@ -5732,14 +5769,17 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5781,15 +5821,15 @@
       </c>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="53" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="50" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5802,25 +5842,25 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="53"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -5841,13 +5881,13 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
@@ -5862,8 +5902,8 @@
       <c r="D4" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="50"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5888,8 +5928,8 @@
       <c r="D5" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="51"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="57"/>
       <c r="G5" s="5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -5914,8 +5954,8 @@
       <c r="D6" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="51"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="5"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -5940,8 +5980,8 @@
       <c r="D7" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="52"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="5"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5966,8 +6006,8 @@
       <c r="D8" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="50"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="5"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -5992,8 +6032,8 @@
       <c r="D9" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="51"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="5"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -6018,8 +6058,8 @@
       <c r="D10" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="51"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="5"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -6044,8 +6084,8 @@
       <c r="D11" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="52"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="5"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -6070,8 +6110,8 @@
       <c r="D12" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="50"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="5"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -6096,8 +6136,8 @@
       <c r="D13" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="51"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="5"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -6122,8 +6162,8 @@
       <c r="D14" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="51"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -6148,8 +6188,8 @@
       <c r="D15" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="52"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="5"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -6174,8 +6214,8 @@
       <c r="D16" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="50"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="5"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -6200,8 +6240,8 @@
       <c r="D17" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="51"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="5"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -6226,8 +6266,8 @@
       <c r="D18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="51"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="5"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -6252,8 +6292,8 @@
       <c r="D19" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="52"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="58"/>
       <c r="G19" s="5"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -6278,8 +6318,8 @@
       <c r="D20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="50"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="5"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -6304,8 +6344,8 @@
       <c r="D21" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="51"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="5"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -6330,8 +6370,8 @@
       <c r="D22" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="51"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="5"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -6356,8 +6396,8 @@
       <c r="D23" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="52"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="5"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -6382,8 +6422,8 @@
       <c r="D24" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="50"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="5"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -6408,8 +6448,8 @@
       <c r="D25" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="51"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="5"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -6434,8 +6474,8 @@
       <c r="D26" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="51"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="5"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -6460,8 +6500,8 @@
       <c r="D27" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="52"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="5"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -6486,8 +6526,8 @@
       <c r="D28" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="50"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="5"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -6512,8 +6552,8 @@
       <c r="D29" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="51"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="5"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -6538,8 +6578,8 @@
       <c r="D30" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="51"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="5"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -6564,8 +6604,8 @@
       <c r="D31" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="52"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="5"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -6590,8 +6630,8 @@
       <c r="D32" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="50"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="5"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -6616,8 +6656,8 @@
       <c r="D33" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="51"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="5"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -6642,8 +6682,8 @@
       <c r="D34" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="51"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="5"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -6668,8 +6708,8 @@
       <c r="D35" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="51"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="5"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -6694,8 +6734,8 @@
       <c r="D36" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="52"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="5"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -6720,8 +6760,8 @@
       <c r="D37" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="50"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="56"/>
       <c r="G37" s="5"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -6746,8 +6786,8 @@
       <c r="D38" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="51"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="5"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -6772,8 +6812,8 @@
       <c r="D39" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="51"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="5"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -6798,8 +6838,8 @@
       <c r="D40" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="51"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="5"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -6824,8 +6864,8 @@
       <c r="D41" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="52"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="58"/>
       <c r="G41" s="5"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -6839,6 +6879,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="F37:F41"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="G2:G3"/>
@@ -6847,25 +6906,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6875,7 +6915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="L5" sqref="L5:L40"/>
     </sheetView>
   </sheetViews>
@@ -6905,15 +6945,15 @@
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="35" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="33" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6928,42 +6968,42 @@
       </c>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="35"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="25"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="35"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
@@ -7008,8 +7048,8 @@
       <c r="D5" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="62"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -7034,8 +7074,8 @@
       <c r="D6" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="63"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -7060,8 +7100,8 @@
       <c r="D7" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="63"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -7086,8 +7126,8 @@
       <c r="D8" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="64"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -7112,8 +7152,8 @@
       <c r="D9" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="62"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -7138,8 +7178,8 @@
       <c r="D10" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="63"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -7164,8 +7204,8 @@
       <c r="D11" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="63"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -7190,8 +7230,8 @@
       <c r="D12" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="64"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="66"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -7216,8 +7256,8 @@
       <c r="D13" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="62"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="64"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -7242,8 +7282,8 @@
       <c r="D14" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="63"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -7268,8 +7308,8 @@
       <c r="D15" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="63"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -7294,8 +7334,8 @@
       <c r="D16" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="64"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -7320,7 +7360,7 @@
       <c r="D17" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="59"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -7346,7 +7386,7 @@
       <c r="D18" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="60"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -7372,7 +7412,7 @@
       <c r="D19" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="60"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -7398,7 +7438,7 @@
       <c r="D20" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="61"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -7424,7 +7464,7 @@
       <c r="D21" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="59"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -7450,7 +7490,7 @@
       <c r="D22" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="60"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -7476,7 +7516,7 @@
       <c r="D23" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="60"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -7502,7 +7542,7 @@
       <c r="D24" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="E24" s="41"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="61"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -7528,7 +7568,7 @@
       <c r="D25" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="59"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -7554,7 +7594,7 @@
       <c r="D26" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="40"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="60"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -7580,7 +7620,7 @@
       <c r="D27" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="60"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -7606,7 +7646,7 @@
       <c r="D28" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="E28" s="41"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="61"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -7632,7 +7672,7 @@
       <c r="D29" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="E29" s="39"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="59"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -7658,7 +7698,7 @@
       <c r="D30" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="60"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -7684,7 +7724,7 @@
       <c r="D31" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="60"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -7710,7 +7750,7 @@
       <c r="D32" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="E32" s="41"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="61"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -7736,7 +7776,7 @@
       <c r="D33" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="E33" s="39"/>
+      <c r="E33" s="42"/>
       <c r="F33" s="59"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -7762,7 +7802,7 @@
       <c r="D34" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="E34" s="40"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="60"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -7788,7 +7828,7 @@
       <c r="D35" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="E35" s="40"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="60"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -7814,7 +7854,7 @@
       <c r="D36" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="E36" s="41"/>
+      <c r="E36" s="44"/>
       <c r="F36" s="61"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -7840,7 +7880,7 @@
       <c r="D37" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E37" s="39"/>
+      <c r="E37" s="42"/>
       <c r="F37" s="59"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -7866,7 +7906,7 @@
       <c r="D38" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="40"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="60"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -7892,7 +7932,7 @@
       <c r="D39" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="E39" s="40"/>
+      <c r="E39" s="43"/>
       <c r="F39" s="60"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -7918,7 +7958,7 @@
       <c r="D40" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="E40" s="41"/>
+      <c r="E40" s="44"/>
       <c r="F40" s="61"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
@@ -7933,6 +7973,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="F9:F12"/>
     <mergeCell ref="E37:E40"/>
     <mergeCell ref="F37:F40"/>
     <mergeCell ref="G1:L1"/>
@@ -7949,18 +8001,6 @@
     <mergeCell ref="F29:F32"/>
     <mergeCell ref="E25:E28"/>
     <mergeCell ref="F25:F28"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="F9:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Grade 2018/ProjectScores/NIIT-Project-Score-ZW-2018.xlsx
+++ b/Grade 2018/ProjectScores/NIIT-Project-Score-ZW-2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" activeTab="3"/>
+    <workbookView windowWidth="20328" windowHeight="8820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CC1_ZW" sheetId="9" r:id="rId1"/>
@@ -1455,7 +1455,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1489,13 +1489,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1516,19 +1509,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1536,14 +1528,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1562,45 +1546,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1615,31 +1562,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1654,13 +1578,82 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1705,12 +1698,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6D9F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1735,7 +1722,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1747,19 +1812,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1771,151 +1884,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2064,32 +2033,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2106,8 +2060,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2130,23 +2099,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2161,158 +2115,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2401,31 +2370,31 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2443,50 +2412,47 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2494,7 +2460,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2510,10 +2476,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2883,18 +2849,18 @@
     <col min="10" max="10" width="47.5555555555556" customWidth="1"/>
     <col min="11" max="11" width="9.55555555555556" customWidth="1"/>
     <col min="12" max="12" width="7.33333333333333" customWidth="1"/>
-    <col min="13" max="13" width="46.5555555555556" style="60" customWidth="1"/>
+    <col min="13" max="13" width="46.5555555555556" style="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.4" spans="1:13">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="43" t="s">
@@ -2905,77 +2871,77 @@
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="68" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="63" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="69"/>
+      <c r="M2" s="68"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="69"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="68"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="61">
+      <c r="A4" s="60">
         <v>1</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="60">
         <v>12018245753</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="60" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="22"/>
@@ -2989,19 +2955,19 @@
         <f>SUM(G4:K4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="70"/>
+      <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="61">
+      <c r="A5" s="60">
         <v>2</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="60">
         <v>12018245759</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="60" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="22"/>
@@ -3015,19 +2981,19 @@
         <f t="shared" ref="L5:L46" si="0">SUM(G5:K5)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="70"/>
+      <c r="M5" s="69"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="61">
+      <c r="A6" s="60">
         <v>3</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="60">
         <v>12018245772</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="60" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="22"/>
@@ -3041,19 +3007,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="70"/>
+      <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="61">
+      <c r="A7" s="60">
         <v>4</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="60">
         <v>12018245785</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="22"/>
@@ -3067,19 +3033,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="70"/>
+      <c r="M7" s="69"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="61">
+      <c r="A8" s="60">
         <v>5</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="60">
         <v>12018245851</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="60" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="22"/>
@@ -3093,19 +3059,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M8" s="70"/>
+      <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="61">
+      <c r="A9" s="60">
         <v>6</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="60">
         <v>12018246051</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="60" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="22"/>
@@ -3119,19 +3085,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="70"/>
+      <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="61">
+      <c r="A10" s="60">
         <v>7</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="60">
         <v>12018246053</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="22"/>
@@ -3145,19 +3111,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="70"/>
+      <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="61">
+      <c r="A11" s="60">
         <v>8</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="60">
         <v>12018246054</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="60" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="22"/>
@@ -3171,19 +3137,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="70"/>
+      <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="61">
+      <c r="A12" s="60">
         <v>9</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="60">
         <v>12018246059</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="60" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="22"/>
@@ -3197,19 +3163,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="70"/>
+      <c r="M12" s="69"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="61">
+      <c r="A13" s="60">
         <v>10</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="60">
         <v>12018246063</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="60" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="22"/>
@@ -3223,19 +3189,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="70"/>
+      <c r="M13" s="69"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="61">
+      <c r="A14" s="60">
         <v>11</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="60">
         <v>12018246070</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="60" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="22"/>
@@ -3249,19 +3215,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="70"/>
+      <c r="M14" s="69"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="61">
+      <c r="A15" s="60">
         <v>12</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="60">
         <v>12018246079</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="60" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="22"/>
@@ -3275,19 +3241,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="70"/>
+      <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="61">
+      <c r="A16" s="60">
         <v>13</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="60">
         <v>12018246082</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="60" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="22"/>
@@ -3301,19 +3267,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="70"/>
+      <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="61">
+      <c r="A17" s="60">
         <v>14</v>
       </c>
-      <c r="B17" s="61">
+      <c r="B17" s="60">
         <v>12018246084</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="60" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="22"/>
@@ -3327,19 +3293,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="70"/>
+      <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="61">
+      <c r="A18" s="60">
         <v>15</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="60">
         <v>12018246091</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="60" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="22"/>
@@ -3353,19 +3319,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="70"/>
+      <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="61">
+      <c r="A19" s="60">
         <v>16</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="60">
         <v>12018246094</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="60" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="22"/>
@@ -3379,19 +3345,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="70"/>
+      <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="61">
+      <c r="A20" s="60">
         <v>17</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="60">
         <v>12018246098</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="60" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="22"/>
@@ -3405,19 +3371,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="70"/>
+      <c r="M20" s="69"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="61">
+      <c r="A21" s="60">
         <v>18</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="60">
         <v>12018246102</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="60" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="22"/>
@@ -3431,19 +3397,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="70"/>
+      <c r="M21" s="69"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="61">
+      <c r="A22" s="60">
         <v>19</v>
       </c>
-      <c r="B22" s="61">
+      <c r="B22" s="60">
         <v>12018246103</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="60" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="22"/>
@@ -3457,19 +3423,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M22" s="70"/>
+      <c r="M22" s="69"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="61">
+      <c r="A23" s="60">
         <v>20</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="60">
         <v>12018246106</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="60" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="22"/>
@@ -3483,23 +3449,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="70"/>
+      <c r="M23" s="69"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:13">
-      <c r="A24" s="61">
+      <c r="A24" s="60">
         <v>21</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="60">
         <v>12018246109</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="60" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="22"/>
-      <c r="F24" s="65"/>
+      <c r="F24" s="64"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
@@ -3509,23 +3475,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="70"/>
+      <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="61">
+      <c r="A25" s="60">
         <v>22</v>
       </c>
-      <c r="B25" s="61">
+      <c r="B25" s="60">
         <v>12018246110</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="60" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="22"/>
-      <c r="F25" s="65"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
@@ -3535,23 +3501,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="70"/>
+      <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="61">
+      <c r="A26" s="60">
         <v>23</v>
       </c>
-      <c r="B26" s="61">
+      <c r="B26" s="60">
         <v>12018246112</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="60" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="22"/>
-      <c r="F26" s="65"/>
+      <c r="F26" s="64"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -3561,23 +3527,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="70"/>
+      <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="61">
+      <c r="A27" s="60">
         <v>24</v>
       </c>
-      <c r="B27" s="61">
+      <c r="B27" s="60">
         <v>12018246115</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="60" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="22"/>
-      <c r="F27" s="65"/>
+      <c r="F27" s="64"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -3587,19 +3553,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="70"/>
+      <c r="M27" s="69"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="61">
+      <c r="A28" s="60">
         <v>25</v>
       </c>
-      <c r="B28" s="61">
+      <c r="B28" s="60">
         <v>12018246121</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="60" t="s">
         <v>66</v>
       </c>
       <c r="E28" s="22"/>
@@ -3613,19 +3579,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="70"/>
+      <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="61">
+      <c r="A29" s="60">
         <v>26</v>
       </c>
-      <c r="B29" s="61">
+      <c r="B29" s="60">
         <v>12018246124</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="60" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="22"/>
@@ -3639,19 +3605,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="70"/>
+      <c r="M29" s="69"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="61">
+      <c r="A30" s="60">
         <v>27</v>
       </c>
-      <c r="B30" s="61">
+      <c r="B30" s="60">
         <v>12018246125</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="60" t="s">
         <v>70</v>
       </c>
       <c r="E30" s="22"/>
@@ -3665,19 +3631,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="70"/>
+      <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="61">
+      <c r="A31" s="60">
         <v>28</v>
       </c>
-      <c r="B31" s="61">
+      <c r="B31" s="60">
         <v>12018246127</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="60" t="s">
         <v>72</v>
       </c>
       <c r="E31" s="22"/>
@@ -3691,19 +3657,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="70"/>
+      <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="61">
+      <c r="A32" s="60">
         <v>29</v>
       </c>
-      <c r="B32" s="61">
+      <c r="B32" s="60">
         <v>12018246129</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="60" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="22"/>
@@ -3717,19 +3683,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="70"/>
+      <c r="M32" s="69"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="61">
+      <c r="A33" s="60">
         <v>30</v>
       </c>
-      <c r="B33" s="61">
+      <c r="B33" s="60">
         <v>12018246135</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="60" t="s">
         <v>76</v>
       </c>
       <c r="E33" s="22"/>
@@ -3743,19 +3709,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="70"/>
+      <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="61">
+      <c r="A34" s="60">
         <v>31</v>
       </c>
-      <c r="B34" s="61">
+      <c r="B34" s="60">
         <v>12018246136</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="60" t="s">
         <v>78</v>
       </c>
       <c r="E34" s="22"/>
@@ -3769,19 +3735,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M34" s="70"/>
+      <c r="M34" s="69"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="61">
+      <c r="A35" s="60">
         <v>32</v>
       </c>
-      <c r="B35" s="61">
+      <c r="B35" s="60">
         <v>12018246137</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="60" t="s">
         <v>80</v>
       </c>
       <c r="E35" s="22"/>
@@ -3795,23 +3761,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M35" s="70"/>
+      <c r="M35" s="69"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="61">
+      <c r="A36" s="60">
         <v>33</v>
       </c>
-      <c r="B36" s="61">
+      <c r="B36" s="60">
         <v>12018246140</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="61" t="s">
+      <c r="D36" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
@@ -3821,23 +3787,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="70"/>
+      <c r="M36" s="69"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="61">
+      <c r="A37" s="60">
         <v>34</v>
       </c>
-      <c r="B37" s="61">
+      <c r="B37" s="60">
         <v>12018246142</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
@@ -3847,23 +3813,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M37" s="70"/>
+      <c r="M37" s="69"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="61">
+      <c r="A38" s="60">
         <v>35</v>
       </c>
-      <c r="B38" s="61">
+      <c r="B38" s="60">
         <v>12018246150</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
@@ -3873,23 +3839,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M38" s="70"/>
+      <c r="M38" s="69"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="61">
+      <c r="A39" s="60">
         <v>36</v>
       </c>
-      <c r="B39" s="61">
+      <c r="B39" s="60">
         <v>12018246159</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
@@ -3899,23 +3865,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="70"/>
+      <c r="M39" s="69"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="61">
+      <c r="A40" s="60">
         <v>37</v>
       </c>
-      <c r="B40" s="61">
+      <c r="B40" s="60">
         <v>12018246160</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="D40" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
@@ -3925,23 +3891,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="70"/>
+      <c r="M40" s="69"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="61">
+      <c r="A41" s="60">
         <v>38</v>
       </c>
-      <c r="B41" s="61">
+      <c r="B41" s="60">
         <v>12018246164</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="61" t="s">
+      <c r="D41" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
@@ -3951,23 +3917,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="70"/>
+      <c r="M41" s="69"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="61">
+      <c r="A42" s="60">
         <v>39</v>
       </c>
-      <c r="B42" s="61">
+      <c r="B42" s="60">
         <v>12018246166</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="61" t="s">
+      <c r="D42" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -3977,23 +3943,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M42" s="70"/>
+      <c r="M42" s="69"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="61">
+      <c r="A43" s="60">
         <v>40</v>
       </c>
-      <c r="B43" s="61">
+      <c r="B43" s="60">
         <v>12018246169</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
@@ -4003,23 +3969,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M43" s="70"/>
+      <c r="M43" s="69"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="61">
+      <c r="A44" s="60">
         <v>41</v>
       </c>
-      <c r="B44" s="61">
+      <c r="B44" s="60">
         <v>12017245655</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
@@ -4029,46 +3995,46 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M44" s="70"/>
+      <c r="M44" s="69"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="61">
+      <c r="A45" s="60">
         <v>42</v>
       </c>
-      <c r="B45" s="61">
+      <c r="B45" s="60">
         <v>12016246281</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="61" t="s">
+      <c r="D45" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
-      <c r="M45" s="70"/>
+      <c r="M45" s="69"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="61">
+      <c r="A46" s="60">
         <v>43</v>
       </c>
-      <c r="B46" s="61">
+      <c r="B46" s="60">
         <v>12017245779</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="61" t="s">
+      <c r="D46" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -4078,7 +4044,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M46" s="70"/>
+      <c r="M46" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -4153,7 +4119,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="51" t="s">
         <v>103</v>
       </c>
       <c r="G1" s="43" t="s">
@@ -4164,7 +4130,7 @@
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4177,25 +4143,25 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="58"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
@@ -4216,13 +4182,13 @@
       <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="58"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="11">
@@ -4234,11 +4200,11 @@
       <c r="C4" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="53" t="s">
         <v>106</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="55"/>
+      <c r="F4" s="54"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
@@ -4248,7 +4214,7 @@
         <f>SUM(G4:K4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="59"/>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="11">
@@ -4260,11 +4226,11 @@
       <c r="C5" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>109</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="56"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -4274,7 +4240,7 @@
         <f t="shared" ref="L5:L43" si="0">SUM(G5:K5)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="59"/>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="11">
@@ -4286,11 +4252,11 @@
       <c r="C6" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="53" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="56"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -4300,7 +4266,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="59"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="11">
@@ -4312,11 +4278,11 @@
       <c r="C7" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>115</v>
       </c>
       <c r="E7" s="16"/>
-      <c r="F7" s="57"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -4326,7 +4292,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="59"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="11">
@@ -4338,11 +4304,11 @@
       <c r="C8" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>118</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="55"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -4352,7 +4318,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M8" s="59"/>
+      <c r="M8" s="58"/>
     </row>
     <row r="9" customHeight="1" spans="1:13">
       <c r="A9" s="11">
@@ -4364,11 +4330,11 @@
       <c r="C9" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="56"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -4378,7 +4344,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="59"/>
+      <c r="M9" s="58"/>
     </row>
     <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="11">
@@ -4390,11 +4356,11 @@
       <c r="C10" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>123</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="56"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -4404,7 +4370,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="59"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="11">
@@ -4416,11 +4382,11 @@
       <c r="C11" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>126</v>
       </c>
       <c r="E11" s="16"/>
-      <c r="F11" s="57"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -4430,7 +4396,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="59"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="11">
@@ -4442,11 +4408,11 @@
       <c r="C12" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>129</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="55"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -4456,7 +4422,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="59"/>
+      <c r="M12" s="58"/>
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="11">
@@ -4468,11 +4434,11 @@
       <c r="C13" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>132</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="56"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -4482,7 +4448,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="59"/>
+      <c r="M13" s="58"/>
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="A14" s="11">
@@ -4494,11 +4460,11 @@
       <c r="C14" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="53" t="s">
         <v>135</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="56"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -4508,7 +4474,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="59"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" customHeight="1" spans="1:13">
       <c r="A15" s="11">
@@ -4520,11 +4486,11 @@
       <c r="C15" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="53" t="s">
         <v>138</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="57"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -4534,7 +4500,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="59"/>
+      <c r="M15" s="58"/>
     </row>
     <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="11">
@@ -4546,11 +4512,11 @@
       <c r="C16" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="53" t="s">
         <v>141</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="55"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -4560,7 +4526,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="59"/>
+      <c r="M16" s="58"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:13">
       <c r="A17" s="11">
@@ -4572,11 +4538,11 @@
       <c r="C17" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="53" t="s">
         <v>144</v>
       </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="56"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -4586,7 +4552,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="59"/>
+      <c r="M17" s="58"/>
     </row>
     <row r="18" customHeight="1" spans="1:13">
       <c r="A18" s="11">
@@ -4598,11 +4564,11 @@
       <c r="C18" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="53" t="s">
         <v>147</v>
       </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="56"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -4612,7 +4578,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="59"/>
+      <c r="M18" s="58"/>
     </row>
     <row r="19" customHeight="1" spans="1:13">
       <c r="A19" s="11">
@@ -4624,11 +4590,11 @@
       <c r="C19" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="53" t="s">
         <v>150</v>
       </c>
       <c r="E19" s="16"/>
-      <c r="F19" s="57"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -4638,7 +4604,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="59"/>
+      <c r="M19" s="58"/>
     </row>
     <row r="20" customHeight="1" spans="1:13">
       <c r="A20" s="11">
@@ -4650,11 +4616,11 @@
       <c r="C20" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="53" t="s">
         <v>153</v>
       </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="55"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
@@ -4664,7 +4630,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="59"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" customHeight="1" spans="1:13">
       <c r="A21" s="11">
@@ -4676,11 +4642,11 @@
       <c r="C21" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="53" t="s">
         <v>156</v>
       </c>
       <c r="E21" s="14"/>
-      <c r="F21" s="56"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -4690,7 +4656,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="59"/>
+      <c r="M21" s="58"/>
     </row>
     <row r="22" customHeight="1" spans="1:13">
       <c r="A22" s="11">
@@ -4702,11 +4668,11 @@
       <c r="C22" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="53" t="s">
         <v>159</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="56"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
@@ -4716,7 +4682,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M22" s="59"/>
+      <c r="M22" s="58"/>
     </row>
     <row r="23" customHeight="1" spans="1:13">
       <c r="A23" s="11">
@@ -4728,11 +4694,11 @@
       <c r="C23" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="53" t="s">
         <v>162</v>
       </c>
       <c r="E23" s="16"/>
-      <c r="F23" s="57"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -4742,7 +4708,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="59"/>
+      <c r="M23" s="58"/>
     </row>
     <row r="24" customHeight="1" spans="1:13">
       <c r="A24" s="11">
@@ -4754,11 +4720,11 @@
       <c r="C24" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="53" t="s">
         <v>165</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="55"/>
+      <c r="F24" s="54"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
@@ -4768,7 +4734,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="59"/>
+      <c r="M24" s="58"/>
     </row>
     <row r="25" customHeight="1" spans="1:13">
       <c r="A25" s="11">
@@ -4780,11 +4746,11 @@
       <c r="C25" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="53" t="s">
         <v>168</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="F25" s="56"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
@@ -4794,7 +4760,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="59"/>
+      <c r="M25" s="58"/>
     </row>
     <row r="26" customHeight="1" spans="1:13">
       <c r="A26" s="11">
@@ -4806,11 +4772,11 @@
       <c r="C26" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="53" t="s">
         <v>171</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="56"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -4820,7 +4786,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="59"/>
+      <c r="M26" s="58"/>
     </row>
     <row r="27" customHeight="1" spans="1:13">
       <c r="A27" s="11">
@@ -4832,11 +4798,11 @@
       <c r="C27" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="53" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="16"/>
-      <c r="F27" s="57"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -4846,7 +4812,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="59"/>
+      <c r="M27" s="58"/>
     </row>
     <row r="28" customHeight="1" spans="1:13">
       <c r="A28" s="11">
@@ -4858,11 +4824,11 @@
       <c r="C28" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="53" t="s">
         <v>176</v>
       </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="55"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
@@ -4872,7 +4838,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="59"/>
+      <c r="M28" s="58"/>
     </row>
     <row r="29" customHeight="1" spans="1:13">
       <c r="A29" s="11">
@@ -4884,11 +4850,11 @@
       <c r="C29" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="53" t="s">
         <v>179</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="56"/>
+      <c r="F29" s="55"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
@@ -4898,7 +4864,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
+      <c r="M29" s="58"/>
     </row>
     <row r="30" customHeight="1" spans="1:13">
       <c r="A30" s="11">
@@ -4910,11 +4876,11 @@
       <c r="C30" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="53" t="s">
         <v>182</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="56"/>
+      <c r="F30" s="55"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
@@ -4924,7 +4890,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="59"/>
+      <c r="M30" s="58"/>
     </row>
     <row r="31" customHeight="1" spans="1:13">
       <c r="A31" s="11">
@@ -4936,11 +4902,11 @@
       <c r="C31" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="53" t="s">
         <v>185</v>
       </c>
       <c r="E31" s="16"/>
-      <c r="F31" s="57"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -4950,7 +4916,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="59"/>
+      <c r="M31" s="58"/>
     </row>
     <row r="32" customHeight="1" spans="1:13">
       <c r="A32" s="11">
@@ -4962,11 +4928,11 @@
       <c r="C32" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="53" t="s">
         <v>188</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="55"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
@@ -4976,7 +4942,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="59"/>
+      <c r="M32" s="58"/>
     </row>
     <row r="33" customHeight="1" spans="1:13">
       <c r="A33" s="11">
@@ -4988,11 +4954,11 @@
       <c r="C33" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="53" t="s">
         <v>191</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="F33" s="56"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
@@ -5002,7 +4968,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="59"/>
+      <c r="M33" s="58"/>
     </row>
     <row r="34" customHeight="1" spans="1:13">
       <c r="A34" s="11">
@@ -5014,11 +4980,11 @@
       <c r="C34" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="53" t="s">
         <v>194</v>
       </c>
       <c r="E34" s="14"/>
-      <c r="F34" s="56"/>
+      <c r="F34" s="55"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
@@ -5028,7 +4994,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M34" s="59"/>
+      <c r="M34" s="58"/>
     </row>
     <row r="35" customHeight="1" spans="1:13">
       <c r="A35" s="11">
@@ -5040,11 +5006,11 @@
       <c r="C35" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="53" t="s">
         <v>197</v>
       </c>
       <c r="E35" s="16"/>
-      <c r="F35" s="57"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
@@ -5054,7 +5020,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M35" s="59"/>
+      <c r="M35" s="58"/>
     </row>
     <row r="36" customHeight="1" spans="1:13">
       <c r="A36" s="11">
@@ -5066,11 +5032,11 @@
       <c r="C36" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="53" t="s">
         <v>200</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="55"/>
+      <c r="F36" s="54"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
@@ -5080,7 +5046,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="59"/>
+      <c r="M36" s="58"/>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:13">
       <c r="A37" s="11">
@@ -5092,11 +5058,11 @@
       <c r="C37" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="53" t="s">
         <v>203</v>
       </c>
       <c r="E37" s="14"/>
-      <c r="F37" s="56"/>
+      <c r="F37" s="55"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
@@ -5106,7 +5072,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M37" s="59"/>
+      <c r="M37" s="58"/>
     </row>
     <row r="38" customHeight="1" spans="1:13">
       <c r="A38" s="11">
@@ -5118,11 +5084,11 @@
       <c r="C38" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="53" t="s">
         <v>206</v>
       </c>
       <c r="E38" s="14"/>
-      <c r="F38" s="56"/>
+      <c r="F38" s="55"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
@@ -5132,7 +5098,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M38" s="59"/>
+      <c r="M38" s="58"/>
     </row>
     <row r="39" customHeight="1" spans="1:13">
       <c r="A39" s="11">
@@ -5144,11 +5110,11 @@
       <c r="C39" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="53" t="s">
         <v>209</v>
       </c>
       <c r="E39" s="16"/>
-      <c r="F39" s="57"/>
+      <c r="F39" s="56"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
@@ -5158,7 +5124,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="59"/>
+      <c r="M39" s="58"/>
     </row>
     <row r="40" customHeight="1" spans="1:13">
       <c r="A40" s="11">
@@ -5170,11 +5136,11 @@
       <c r="C40" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="53" t="s">
         <v>212</v>
       </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="55"/>
+      <c r="F40" s="54"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
@@ -5184,7 +5150,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="59"/>
+      <c r="M40" s="58"/>
     </row>
     <row r="41" customHeight="1" spans="1:13">
       <c r="A41" s="11">
@@ -5196,11 +5162,11 @@
       <c r="C41" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="53" t="s">
         <v>214</v>
       </c>
       <c r="E41" s="14"/>
-      <c r="F41" s="56"/>
+      <c r="F41" s="55"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
@@ -5210,7 +5176,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="59"/>
+      <c r="M41" s="58"/>
     </row>
     <row r="42" customHeight="1" spans="1:13">
       <c r="A42" s="11">
@@ -5222,11 +5188,11 @@
       <c r="C42" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="53" t="s">
         <v>112</v>
       </c>
       <c r="E42" s="14"/>
-      <c r="F42" s="56"/>
+      <c r="F42" s="55"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -5236,7 +5202,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M42" s="59"/>
+      <c r="M42" s="58"/>
     </row>
     <row r="43" customHeight="1" spans="1:13">
       <c r="A43" s="11">
@@ -5248,11 +5214,11 @@
       <c r="C43" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D43" s="53" t="s">
         <v>217</v>
       </c>
       <c r="E43" s="16"/>
-      <c r="F43" s="57"/>
+      <c r="F43" s="56"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
@@ -5262,7 +5228,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M43" s="59"/>
+      <c r="M43" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -5434,7 +5400,7 @@
         <f>SUM(G4:K4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="51"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:13">
       <c r="A5" s="11">
@@ -5449,8 +5415,8 @@
       <c r="D5" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -5460,7 +5426,7 @@
         <f t="shared" ref="L5:L42" si="0">SUM(G5:K5)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="51"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:13">
       <c r="A6" s="11">
@@ -5475,8 +5441,8 @@
       <c r="D6" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -5486,7 +5452,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="51"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:13">
       <c r="A7" s="11">
@@ -5501,8 +5467,8 @@
       <c r="D7" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -5512,7 +5478,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="51"/>
+      <c r="M7" s="50"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:13">
       <c r="A8" s="11">
@@ -5527,8 +5493,8 @@
       <c r="D8" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -5538,7 +5504,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M8" s="51"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:13">
       <c r="A9" s="11">
@@ -5568,7 +5534,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="51"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:13">
       <c r="A10" s="11">
@@ -5583,8 +5549,8 @@
       <c r="D10" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -5594,7 +5560,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="51"/>
+      <c r="M10" s="50"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:13">
       <c r="A11" s="11">
@@ -5609,8 +5575,8 @@
       <c r="D11" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -5620,7 +5586,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="51"/>
+      <c r="M11" s="50"/>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:13">
       <c r="A12" s="11">
@@ -5635,8 +5601,8 @@
       <c r="D12" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -5646,7 +5612,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="51"/>
+      <c r="M12" s="50"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:13">
       <c r="A13" s="11">
@@ -5676,7 +5642,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="51"/>
+      <c r="M13" s="50"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:13">
       <c r="A14" s="11">
@@ -5691,8 +5657,8 @@
       <c r="D14" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -5702,7 +5668,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="51"/>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:13">
       <c r="A15" s="11">
@@ -5717,8 +5683,8 @@
       <c r="D15" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -5728,7 +5694,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="51"/>
+      <c r="M15" s="50"/>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:13">
       <c r="A16" s="11">
@@ -5743,8 +5709,8 @@
       <c r="D16" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -5754,7 +5720,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="51"/>
+      <c r="M16" s="50"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:13">
       <c r="A17" s="11">
@@ -5769,8 +5735,8 @@
       <c r="D17" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -5780,7 +5746,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="51"/>
+      <c r="M17" s="50"/>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:13">
       <c r="A18" s="11">
@@ -5795,7 +5761,7 @@
       <c r="D18" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="47" t="s">
         <v>251</v>
       </c>
       <c r="F18" s="45" t="s">
@@ -5810,7 +5776,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="51"/>
+      <c r="M18" s="50"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:13">
       <c r="A19" s="11">
@@ -5825,8 +5791,8 @@
       <c r="D19" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="46"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -5836,7 +5802,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="51"/>
+      <c r="M19" s="50"/>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:13">
       <c r="A20" s="11">
@@ -5851,8 +5817,8 @@
       <c r="D20" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="46"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -5862,7 +5828,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="51"/>
+      <c r="M20" s="50"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:13">
       <c r="A21" s="11">
@@ -5877,8 +5843,8 @@
       <c r="D21" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="47"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -5888,7 +5854,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="51"/>
+      <c r="M21" s="50"/>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:13">
       <c r="A22" s="11">
@@ -5918,7 +5884,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M22" s="51"/>
+      <c r="M22" s="50"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:13">
       <c r="A23" s="11">
@@ -5933,8 +5899,8 @@
       <c r="D23" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -5944,7 +5910,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="51"/>
+      <c r="M23" s="50"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:13">
       <c r="A24" s="11">
@@ -5959,8 +5925,8 @@
       <c r="D24" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -5970,7 +5936,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="51"/>
+      <c r="M24" s="50"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:13">
       <c r="A25" s="11">
@@ -5985,8 +5951,8 @@
       <c r="D25" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -5996,7 +5962,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="51"/>
+      <c r="M25" s="50"/>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:13">
       <c r="A26" s="11">
@@ -6026,7 +5992,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="51"/>
+      <c r="M26" s="50"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:13">
       <c r="A27" s="11">
@@ -6041,8 +6007,8 @@
       <c r="D27" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -6052,7 +6018,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="51"/>
+      <c r="M27" s="50"/>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:13">
       <c r="A28" s="11">
@@ -6067,8 +6033,8 @@
       <c r="D28" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -6078,7 +6044,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="51"/>
+      <c r="M28" s="50"/>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:13">
       <c r="A29" s="11">
@@ -6093,8 +6059,8 @@
       <c r="D29" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -6104,7 +6070,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="51"/>
+      <c r="M29" s="50"/>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:13">
       <c r="A30" s="11">
@@ -6134,7 +6100,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="51"/>
+      <c r="M30" s="50"/>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:13">
       <c r="A31" s="11">
@@ -6149,8 +6115,8 @@
       <c r="D31" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -6160,7 +6126,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="51"/>
+      <c r="M31" s="50"/>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:13">
       <c r="A32" s="11">
@@ -6175,8 +6141,8 @@
       <c r="D32" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -6186,7 +6152,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="51"/>
+      <c r="M32" s="50"/>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:13">
       <c r="A33" s="11">
@@ -6201,8 +6167,8 @@
       <c r="D33" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -6212,7 +6178,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="51"/>
+      <c r="M33" s="50"/>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:13">
       <c r="A34" s="11">
@@ -6242,7 +6208,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M34" s="51"/>
+      <c r="M34" s="50"/>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:13">
       <c r="A35" s="11">
@@ -6257,8 +6223,8 @@
       <c r="D35" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -6268,7 +6234,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M35" s="51"/>
+      <c r="M35" s="50"/>
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:13">
       <c r="A36" s="11">
@@ -6283,8 +6249,8 @@
       <c r="D36" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -6294,7 +6260,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="51"/>
+      <c r="M36" s="50"/>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:13">
       <c r="A37" s="11">
@@ -6309,8 +6275,8 @@
       <c r="D37" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="47"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="46"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -6320,7 +6286,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M37" s="51"/>
+      <c r="M37" s="50"/>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:13">
       <c r="A38" s="11">
@@ -6350,7 +6316,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M38" s="51"/>
+      <c r="M38" s="50"/>
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:13">
       <c r="A39" s="11">
@@ -6365,8 +6331,8 @@
       <c r="D39" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -6376,7 +6342,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="51"/>
+      <c r="M39" s="50"/>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:13">
       <c r="A40" s="11">
@@ -6391,8 +6357,8 @@
       <c r="D40" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -6402,7 +6368,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="51"/>
+      <c r="M40" s="50"/>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:13">
       <c r="A41" s="11">
@@ -6417,8 +6383,8 @@
       <c r="D41" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -6428,7 +6394,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="51"/>
+      <c r="M41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:13">
       <c r="A42" s="10"/>
@@ -6443,7 +6409,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
-      <c r="M42" s="51"/>
+      <c r="M42" s="50"/>
     </row>
     <row r="45" spans="3:7">
       <c r="C45" s="31" t="s">
@@ -6503,8 +6469,8 @@
   <sheetPr/>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.2222222222222" defaultRowHeight="14.4"/>

--- a/Grade 2018/ProjectScores/NIIT-Project-Score-ZW-2018.xlsx
+++ b/Grade 2018/ProjectScores/NIIT-Project-Score-ZW-2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8250" activeTab="4"/>
+    <workbookView windowWidth="20976" windowHeight="9384" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CC1_ZW" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="485">
   <si>
     <t>Trainer</t>
   </si>
@@ -686,6 +686,9 @@
     <t>restaurant managent  system</t>
   </si>
   <si>
+    <t>整体没问题，页面美化有待改进</t>
+  </si>
+  <si>
     <t>张盼风</t>
   </si>
   <si>
@@ -698,15 +701,24 @@
     <t>Mike</t>
   </si>
   <si>
+    <t>功能基本实现，项目讲解环节有待提高</t>
+  </si>
+  <si>
     <t>李兴旺</t>
   </si>
   <si>
     <t>Lee</t>
   </si>
   <si>
+    <t>项目展示有点问题，页面间的过度不友好</t>
+  </si>
+  <si>
     <t>禹杰</t>
   </si>
   <si>
+    <t>项目展示过程中电脑出现点问题，页面美化欠缺</t>
+  </si>
+  <si>
     <t>田宗宝</t>
   </si>
   <si>
@@ -719,6 +731,9 @@
     <t>examination protal</t>
   </si>
   <si>
+    <t>没有使用项目要求的框架</t>
+  </si>
+  <si>
     <t>David</t>
   </si>
   <si>
@@ -743,18 +758,27 @@
     <t>student managent  system</t>
   </si>
   <si>
+    <t>功能都实现，代码规范达标</t>
+  </si>
+  <si>
     <t>景芮楠</t>
   </si>
   <si>
     <t>Renee</t>
   </si>
   <si>
+    <t>页面美化欠缺</t>
+  </si>
+  <si>
     <t>李付迁</t>
   </si>
   <si>
     <t>Lisa</t>
   </si>
   <si>
+    <t>功能基本实现</t>
+  </si>
+  <si>
     <t>庞卓</t>
   </si>
   <si>
@@ -767,6 +791,9 @@
     <t>Kobe</t>
   </si>
   <si>
+    <t>缺乏逻辑</t>
+  </si>
+  <si>
     <t>朱振</t>
   </si>
   <si>
@@ -785,9 +812,15 @@
     <t>Young</t>
   </si>
   <si>
+    <t>没有教师注册功能</t>
+  </si>
+  <si>
     <t>Bob</t>
   </si>
   <si>
+    <t>页面美化不够</t>
+  </si>
+  <si>
     <t>高万富</t>
   </si>
   <si>
@@ -809,6 +842,9 @@
     <t>Suzy</t>
   </si>
   <si>
+    <t>有些逻辑稍有问题</t>
+  </si>
+  <si>
     <t>陈芮</t>
   </si>
   <si>
@@ -827,9 +863,15 @@
     <t>shopping portal</t>
   </si>
   <si>
+    <t>功能全部实现</t>
+  </si>
+  <si>
     <t>Alisa</t>
   </si>
   <si>
+    <t>管理员添加的商品信息不能在消费者页面展示</t>
+  </si>
+  <si>
     <t>虎娜</t>
   </si>
   <si>
@@ -851,12 +893,21 @@
     <t>hospital managent  system</t>
   </si>
   <si>
+    <t>页面待优化</t>
+  </si>
+  <si>
     <t>田进虎</t>
   </si>
   <si>
+    <t>预约展示出现错误</t>
+  </si>
+  <si>
     <t>范嘉慧</t>
   </si>
   <si>
+    <t>逻辑不通顺</t>
+  </si>
+  <si>
     <t>路佳轩</t>
   </si>
   <si>
@@ -872,21 +923,33 @@
     <t>赵少华</t>
   </si>
   <si>
+    <t>有事，人没来</t>
+  </si>
+  <si>
     <t>徐旺</t>
   </si>
   <si>
     <t>Richard</t>
   </si>
   <si>
+    <t>功能不完善</t>
+  </si>
+  <si>
     <t>秦轲</t>
   </si>
   <si>
     <t>Candy Boy</t>
   </si>
   <si>
+    <t>逻辑有问题，ppt做的简单</t>
+  </si>
+  <si>
     <t>Raymond</t>
   </si>
   <si>
+    <t>功能基本实现，页面美化不足</t>
+  </si>
+  <si>
     <t>牛健峰</t>
   </si>
   <si>
@@ -896,6 +959,9 @@
     <t>徐斌</t>
   </si>
   <si>
+    <t>逻辑有问题，页面优化不好</t>
+  </si>
+  <si>
     <t>Alexander</t>
   </si>
   <si>
@@ -926,21 +992,33 @@
     <t>孙付贵</t>
   </si>
   <si>
+    <t>整体没啥问题</t>
+  </si>
+  <si>
     <t>张祺之</t>
   </si>
   <si>
     <t>Ellison</t>
   </si>
   <si>
+    <t>功能全部实现，ppt讲解不够自信</t>
+  </si>
+  <si>
     <t>李登龙</t>
   </si>
   <si>
+    <t>页面自适应设计选错格式</t>
+  </si>
+  <si>
     <t>孙虎威</t>
   </si>
   <si>
     <t>Larry</t>
   </si>
   <si>
+    <t>逻辑欠缺</t>
+  </si>
+  <si>
     <t>张翻弟</t>
   </si>
   <si>
@@ -962,6 +1040,9 @@
     <t>Kyrie</t>
   </si>
   <si>
+    <t>页面跳转有问题</t>
+  </si>
+  <si>
     <t>买小芳</t>
   </si>
   <si>
@@ -971,18 +1052,27 @@
     <t>鲜少玉</t>
   </si>
   <si>
+    <t>页面缺乏美化</t>
+  </si>
+  <si>
     <t>王亚男</t>
   </si>
   <si>
     <t>Angela</t>
   </si>
   <si>
+    <t>注册页面的逻辑挺好，都做了判断</t>
+  </si>
+  <si>
     <t>张永强</t>
   </si>
   <si>
     <t>Zed</t>
   </si>
   <si>
+    <t>功能不完善（病人不能预约某个医生），页面美化差</t>
+  </si>
+  <si>
     <t>Robertson</t>
   </si>
   <si>
@@ -992,6 +1082,9 @@
     <t>Lucky</t>
   </si>
   <si>
+    <t>页面美化不足</t>
+  </si>
+  <si>
     <t>张琰翊</t>
   </si>
   <si>
@@ -1010,6 +1103,9 @@
     <t>Iris</t>
   </si>
   <si>
+    <t>购物车只出了概念，没有实现</t>
+  </si>
+  <si>
     <t>马瑞虎</t>
   </si>
   <si>
@@ -1049,24 +1145,36 @@
     <t>王炳刚</t>
   </si>
   <si>
+    <t>ppt做的挺好</t>
+  </si>
+  <si>
     <t>王萍</t>
   </si>
   <si>
     <t>Sunny</t>
   </si>
   <si>
+    <t>页面效果挺好</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 柴潇凤</t>
   </si>
   <si>
     <t>Tina</t>
   </si>
   <si>
+    <t>数据验证都有，功能基本实现</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 王炳刚</t>
   </si>
   <si>
     <t>WZZ</t>
   </si>
   <si>
+    <t>逻辑不太好</t>
+  </si>
+  <si>
     <t>王志龙</t>
   </si>
   <si>
@@ -1079,15 +1187,24 @@
     <t>Eli</t>
   </si>
   <si>
+    <t>页面美化欠缺，功能基本实现</t>
+  </si>
+  <si>
     <t>赵浩</t>
   </si>
   <si>
     <t>Wosage</t>
   </si>
   <si>
+    <t>逻辑欠缺，页面美化欠缺</t>
+  </si>
+  <si>
     <t>Moore</t>
   </si>
   <si>
+    <t>功能基本实现，代码规范</t>
+  </si>
+  <si>
     <t>王志行</t>
   </si>
   <si>
@@ -1128,6 +1245,9 @@
   </si>
   <si>
     <t>Lisege</t>
+  </si>
+  <si>
+    <t>教师学生功能没分离开</t>
   </si>
   <si>
     <t>王超磊</t>
@@ -1361,9 +1481,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1425,8 +1545,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1440,10 +1561,39 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1455,9 +1605,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1473,97 +1684,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1644,55 +1764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,7 +1782,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1722,7 +1806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,49 +1818,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1794,19 +1854,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2065,26 +2185,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2104,11 +2209,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2145,15 +2256,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2162,6 +2264,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2171,7 +2291,7 @@
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2180,136 +2300,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2900,24 +3020,24 @@
       <selection activeCell="F8" sqref="F8:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.3363636363636" customWidth="1"/>
-    <col min="2" max="2" width="13.4454545454545" customWidth="1"/>
-    <col min="3" max="3" width="20.1090909090909" customWidth="1"/>
-    <col min="4" max="4" width="17.6636363636364" customWidth="1"/>
-    <col min="5" max="5" width="16.5545454545455" customWidth="1"/>
-    <col min="6" max="6" width="30.1090909090909" customWidth="1"/>
-    <col min="7" max="7" width="23.2181818181818" customWidth="1"/>
-    <col min="8" max="8" width="22.3363636363636" customWidth="1"/>
-    <col min="9" max="9" width="40.3363636363636" customWidth="1"/>
-    <col min="10" max="10" width="47.5545454545455" customWidth="1"/>
-    <col min="11" max="11" width="9.55454545454545" customWidth="1"/>
-    <col min="12" max="12" width="7.33636363636364" customWidth="1"/>
-    <col min="13" max="13" width="46.5545454545455" style="70" customWidth="1"/>
+    <col min="1" max="1" width="10.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="20.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="17.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="30.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="23.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="22.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="40.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="47.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="9.55555555555556" customWidth="1"/>
+    <col min="12" max="12" width="7.33333333333333" customWidth="1"/>
+    <col min="13" max="13" width="46.5555555555556" style="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:13">
+    <row r="1" ht="20.4" spans="1:13">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -4159,24 +4279,24 @@
       <selection activeCell="L5" sqref="L5:L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.89090909090909" customWidth="1"/>
-    <col min="2" max="2" width="13.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="20.3363636363636" customWidth="1"/>
-    <col min="4" max="4" width="17.4454545454545" customWidth="1"/>
-    <col min="5" max="5" width="16.5545454545455" customWidth="1"/>
-    <col min="6" max="6" width="53.4454545454545" customWidth="1"/>
-    <col min="7" max="7" width="23.6636363636364" customWidth="1"/>
+    <col min="1" max="1" width="9.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="16.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="53.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="23.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="40.5545454545455" customWidth="1"/>
-    <col min="10" max="10" width="47.4454545454545" customWidth="1"/>
-    <col min="11" max="11" width="9.89090909090909" customWidth="1"/>
-    <col min="12" max="12" width="7.89090909090909" customWidth="1"/>
+    <col min="9" max="9" width="40.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="47.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="9.88888888888889" customWidth="1"/>
+    <col min="12" max="12" width="7.88888888888889" customWidth="1"/>
     <col min="13" max="13" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:13">
+    <row r="1" ht="20.4" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4199,7 +4319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.5" spans="1:13">
+    <row r="2" ht="17.4" spans="1:13">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>4</v>
@@ -4255,7 +4375,7 @@
       <c r="L3" s="60"/>
       <c r="M3" s="68"/>
     </row>
-    <row r="4" ht="14.4" customHeight="1" spans="1:13">
+    <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="36">
         <v>1</v>
       </c>
@@ -4281,7 +4401,7 @@
       </c>
       <c r="M4" s="69"/>
     </row>
-    <row r="5" ht="14.4" customHeight="1" spans="1:13">
+    <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="36">
         <v>2</v>
       </c>
@@ -4307,7 +4427,7 @@
       </c>
       <c r="M5" s="69"/>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:13">
+    <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="36">
         <v>3</v>
       </c>
@@ -4333,7 +4453,7 @@
       </c>
       <c r="M6" s="69"/>
     </row>
-    <row r="7" ht="14.4" customHeight="1" spans="1:13">
+    <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="36">
         <v>4</v>
       </c>
@@ -4359,7 +4479,7 @@
       </c>
       <c r="M7" s="69"/>
     </row>
-    <row r="8" ht="14.4" customHeight="1" spans="1:13">
+    <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="36">
         <v>5</v>
       </c>
@@ -4385,7 +4505,7 @@
       </c>
       <c r="M8" s="69"/>
     </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:13">
+    <row r="9" customHeight="1" spans="1:13">
       <c r="A9" s="36">
         <v>6</v>
       </c>
@@ -4411,7 +4531,7 @@
       </c>
       <c r="M9" s="69"/>
     </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:13">
+    <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="36">
         <v>7</v>
       </c>
@@ -4437,7 +4557,7 @@
       </c>
       <c r="M10" s="69"/>
     </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:13">
+    <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="36">
         <v>8</v>
       </c>
@@ -4463,7 +4583,7 @@
       </c>
       <c r="M11" s="69"/>
     </row>
-    <row r="12" ht="14.4" customHeight="1" spans="1:13">
+    <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="36">
         <v>9</v>
       </c>
@@ -4489,7 +4609,7 @@
       </c>
       <c r="M12" s="69"/>
     </row>
-    <row r="13" ht="14.4" customHeight="1" spans="1:13">
+    <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="36">
         <v>10</v>
       </c>
@@ -4515,7 +4635,7 @@
       </c>
       <c r="M13" s="69"/>
     </row>
-    <row r="14" ht="14.4" customHeight="1" spans="1:13">
+    <row r="14" customHeight="1" spans="1:13">
       <c r="A14" s="36">
         <v>11</v>
       </c>
@@ -4541,7 +4661,7 @@
       </c>
       <c r="M14" s="69"/>
     </row>
-    <row r="15" ht="14.4" customHeight="1" spans="1:13">
+    <row r="15" customHeight="1" spans="1:13">
       <c r="A15" s="36">
         <v>12</v>
       </c>
@@ -4567,7 +4687,7 @@
       </c>
       <c r="M15" s="69"/>
     </row>
-    <row r="16" ht="14.4" customHeight="1" spans="1:13">
+    <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="36">
         <v>13</v>
       </c>
@@ -4619,7 +4739,7 @@
       </c>
       <c r="M17" s="69"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" spans="1:13">
+    <row r="18" customHeight="1" spans="1:13">
       <c r="A18" s="36">
         <v>15</v>
       </c>
@@ -4645,7 +4765,7 @@
       </c>
       <c r="M18" s="69"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1" spans="1:13">
+    <row r="19" customHeight="1" spans="1:13">
       <c r="A19" s="36">
         <v>16</v>
       </c>
@@ -4671,7 +4791,7 @@
       </c>
       <c r="M19" s="69"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1" spans="1:13">
+    <row r="20" customHeight="1" spans="1:13">
       <c r="A20" s="36">
         <v>17</v>
       </c>
@@ -4697,7 +4817,7 @@
       </c>
       <c r="M20" s="69"/>
     </row>
-    <row r="21" ht="14.4" customHeight="1" spans="1:13">
+    <row r="21" customHeight="1" spans="1:13">
       <c r="A21" s="36">
         <v>18</v>
       </c>
@@ -4723,7 +4843,7 @@
       </c>
       <c r="M21" s="69"/>
     </row>
-    <row r="22" ht="14.4" customHeight="1" spans="1:13">
+    <row r="22" customHeight="1" spans="1:13">
       <c r="A22" s="36">
         <v>19</v>
       </c>
@@ -4749,7 +4869,7 @@
       </c>
       <c r="M22" s="69"/>
     </row>
-    <row r="23" ht="14.4" customHeight="1" spans="1:13">
+    <row r="23" customHeight="1" spans="1:13">
       <c r="A23" s="36">
         <v>20</v>
       </c>
@@ -4775,7 +4895,7 @@
       </c>
       <c r="M23" s="69"/>
     </row>
-    <row r="24" ht="14.4" customHeight="1" spans="1:13">
+    <row r="24" customHeight="1" spans="1:13">
       <c r="A24" s="36">
         <v>21</v>
       </c>
@@ -4801,7 +4921,7 @@
       </c>
       <c r="M24" s="69"/>
     </row>
-    <row r="25" ht="14.4" customHeight="1" spans="1:13">
+    <row r="25" customHeight="1" spans="1:13">
       <c r="A25" s="36">
         <v>22</v>
       </c>
@@ -4827,7 +4947,7 @@
       </c>
       <c r="M25" s="69"/>
     </row>
-    <row r="26" ht="14.4" customHeight="1" spans="1:13">
+    <row r="26" customHeight="1" spans="1:13">
       <c r="A26" s="36">
         <v>23</v>
       </c>
@@ -4853,7 +4973,7 @@
       </c>
       <c r="M26" s="69"/>
     </row>
-    <row r="27" ht="14.4" customHeight="1" spans="1:13">
+    <row r="27" customHeight="1" spans="1:13">
       <c r="A27" s="36">
         <v>24</v>
       </c>
@@ -4879,7 +4999,7 @@
       </c>
       <c r="M27" s="69"/>
     </row>
-    <row r="28" ht="14.4" customHeight="1" spans="1:13">
+    <row r="28" customHeight="1" spans="1:13">
       <c r="A28" s="36">
         <v>25</v>
       </c>
@@ -4905,7 +5025,7 @@
       </c>
       <c r="M28" s="69"/>
     </row>
-    <row r="29" ht="14.4" customHeight="1" spans="1:13">
+    <row r="29" customHeight="1" spans="1:13">
       <c r="A29" s="36">
         <v>26</v>
       </c>
@@ -4931,7 +5051,7 @@
       </c>
       <c r="M29" s="69"/>
     </row>
-    <row r="30" ht="14.4" customHeight="1" spans="1:13">
+    <row r="30" customHeight="1" spans="1:13">
       <c r="A30" s="36">
         <v>27</v>
       </c>
@@ -4957,7 +5077,7 @@
       </c>
       <c r="M30" s="69"/>
     </row>
-    <row r="31" ht="14.4" customHeight="1" spans="1:13">
+    <row r="31" customHeight="1" spans="1:13">
       <c r="A31" s="36">
         <v>28</v>
       </c>
@@ -4983,7 +5103,7 @@
       </c>
       <c r="M31" s="69"/>
     </row>
-    <row r="32" ht="14.4" customHeight="1" spans="1:13">
+    <row r="32" customHeight="1" spans="1:13">
       <c r="A32" s="36">
         <v>29</v>
       </c>
@@ -5009,7 +5129,7 @@
       </c>
       <c r="M32" s="69"/>
     </row>
-    <row r="33" ht="14.4" customHeight="1" spans="1:13">
+    <row r="33" customHeight="1" spans="1:13">
       <c r="A33" s="36">
         <v>30</v>
       </c>
@@ -5035,7 +5155,7 @@
       </c>
       <c r="M33" s="69"/>
     </row>
-    <row r="34" ht="14.4" customHeight="1" spans="1:13">
+    <row r="34" customHeight="1" spans="1:13">
       <c r="A34" s="36">
         <v>31</v>
       </c>
@@ -5061,7 +5181,7 @@
       </c>
       <c r="M34" s="69"/>
     </row>
-    <row r="35" ht="14.4" customHeight="1" spans="1:13">
+    <row r="35" customHeight="1" spans="1:13">
       <c r="A35" s="36">
         <v>32</v>
       </c>
@@ -5087,7 +5207,7 @@
       </c>
       <c r="M35" s="69"/>
     </row>
-    <row r="36" ht="14.4" customHeight="1" spans="1:13">
+    <row r="36" customHeight="1" spans="1:13">
       <c r="A36" s="36">
         <v>33</v>
       </c>
@@ -5139,7 +5259,7 @@
       </c>
       <c r="M37" s="69"/>
     </row>
-    <row r="38" ht="14.4" customHeight="1" spans="1:13">
+    <row r="38" customHeight="1" spans="1:13">
       <c r="A38" s="36">
         <v>35</v>
       </c>
@@ -5165,7 +5285,7 @@
       </c>
       <c r="M38" s="69"/>
     </row>
-    <row r="39" ht="14.4" customHeight="1" spans="1:13">
+    <row r="39" customHeight="1" spans="1:13">
       <c r="A39" s="36">
         <v>36</v>
       </c>
@@ -5191,7 +5311,7 @@
       </c>
       <c r="M39" s="69"/>
     </row>
-    <row r="40" ht="14.4" customHeight="1" spans="1:13">
+    <row r="40" customHeight="1" spans="1:13">
       <c r="A40" s="36">
         <v>37</v>
       </c>
@@ -5217,7 +5337,7 @@
       </c>
       <c r="M40" s="69"/>
     </row>
-    <row r="41" ht="14.4" customHeight="1" spans="1:13">
+    <row r="41" customHeight="1" spans="1:13">
       <c r="A41" s="36">
         <v>38</v>
       </c>
@@ -5243,7 +5363,7 @@
       </c>
       <c r="M41" s="69"/>
     </row>
-    <row r="42" ht="14.4" customHeight="1" spans="1:13">
+    <row r="42" customHeight="1" spans="1:13">
       <c r="A42" s="36">
         <v>39</v>
       </c>
@@ -5269,7 +5389,7 @@
       </c>
       <c r="M42" s="69"/>
     </row>
-    <row r="43" ht="14.4" customHeight="1" spans="1:13">
+    <row r="43" customHeight="1" spans="1:13">
       <c r="A43" s="36">
         <v>40</v>
       </c>
@@ -5338,27 +5458,27 @@
   <sheetPr/>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.89090909090909" customWidth="1"/>
-    <col min="2" max="2" width="16.4454545454545" customWidth="1"/>
-    <col min="3" max="4" width="20.1090909090909" customWidth="1"/>
-    <col min="5" max="5" width="16.5545454545455" customWidth="1"/>
-    <col min="6" max="6" width="42.8909090909091" customWidth="1"/>
-    <col min="7" max="7" width="19.3363636363636" customWidth="1"/>
-    <col min="8" max="8" width="18.7818181818182" customWidth="1"/>
-    <col min="9" max="9" width="33.7818181818182" customWidth="1"/>
-    <col min="10" max="10" width="40.1090909090909" customWidth="1"/>
-    <col min="11" max="11" width="11.3" customWidth="1"/>
-    <col min="12" max="12" width="17.4090909090909" customWidth="1"/>
+    <col min="1" max="1" width="9.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="16.4444444444444" customWidth="1"/>
+    <col min="3" max="4" width="20.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="16.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="42.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="19.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="33.7777777777778" customWidth="1"/>
+    <col min="10" max="10" width="40.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="11.2962962962963" customWidth="1"/>
+    <col min="12" max="12" width="17.4074074074074" customWidth="1"/>
     <col min="13" max="13" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:13">
+    <row r="1" ht="20.4" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5381,7 +5501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.5" spans="1:13">
+    <row r="2" ht="17.4" spans="1:13">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>4</v>
@@ -5410,7 +5530,7 @@
       </c>
       <c r="M2" s="28"/>
     </row>
-    <row r="3" ht="14.75" spans="1:13">
+    <row r="3" ht="15.15" spans="1:13">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -5456,16 +5576,27 @@
       <c r="F4" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="G4" s="10">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10">
+        <v>16</v>
+      </c>
+      <c r="J4" s="10">
+        <v>18</v>
+      </c>
+      <c r="K4" s="10">
+        <v>16</v>
+      </c>
       <c r="L4" s="10">
-        <f>SUM(G4:K4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="58"/>
+        <v>82</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:13">
       <c r="A5" s="36">
@@ -5475,23 +5606,34 @@
         <v>12018246148</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="G5" s="10">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10">
+        <v>14</v>
+      </c>
+      <c r="I5" s="10">
+        <v>16</v>
+      </c>
+      <c r="J5" s="10">
+        <v>18</v>
+      </c>
+      <c r="K5" s="10">
+        <v>16</v>
+      </c>
       <c r="L5" s="10">
-        <f t="shared" ref="L5:L42" si="0">SUM(G5:K5)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="58"/>
+        <v>80</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:13">
       <c r="A6" s="36">
@@ -5501,23 +5643,34 @@
         <v>12018246105</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="G6" s="10">
+        <v>16</v>
+      </c>
+      <c r="H6" s="10">
+        <v>16</v>
+      </c>
+      <c r="I6" s="10">
+        <v>14</v>
+      </c>
+      <c r="J6" s="10">
+        <v>16</v>
+      </c>
+      <c r="K6" s="10">
+        <v>16</v>
+      </c>
       <c r="L6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="58"/>
+        <v>78</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:13">
       <c r="A7" s="36">
@@ -5527,23 +5680,34 @@
         <v>12018246067</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="G7" s="10">
+        <v>14</v>
+      </c>
+      <c r="H7" s="10">
+        <v>14</v>
+      </c>
+      <c r="I7" s="10">
+        <v>12</v>
+      </c>
+      <c r="J7" s="10">
+        <v>14</v>
+      </c>
+      <c r="K7" s="10">
+        <v>13</v>
+      </c>
       <c r="L7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="58"/>
+        <v>67</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:13">
       <c r="A8" s="36">
@@ -5553,23 +5717,34 @@
         <v>12018246072</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="54"/>
       <c r="F8" s="54"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="G8" s="10">
+        <v>14</v>
+      </c>
+      <c r="H8" s="10">
+        <v>12</v>
+      </c>
+      <c r="I8" s="10">
+        <v>12</v>
+      </c>
+      <c r="J8" s="10">
+        <v>14</v>
+      </c>
+      <c r="K8" s="10">
+        <v>13</v>
+      </c>
       <c r="L8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="58"/>
+        <v>65</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:13">
       <c r="A9" s="36">
@@ -5579,27 +5754,38 @@
         <v>12018246071</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+        <v>236</v>
+      </c>
+      <c r="G9" s="10">
+        <v>10</v>
+      </c>
+      <c r="H9" s="10">
+        <v>14</v>
+      </c>
+      <c r="I9" s="10">
+        <v>12</v>
+      </c>
+      <c r="J9" s="10">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10">
+        <v>12</v>
+      </c>
       <c r="L9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="58"/>
+        <v>58</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:13">
       <c r="A10" s="36">
@@ -5609,23 +5795,34 @@
         <v>12018246111</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="G10" s="10">
+        <v>10</v>
+      </c>
+      <c r="H10" s="10">
+        <v>14</v>
+      </c>
+      <c r="I10" s="10">
+        <v>12</v>
+      </c>
+      <c r="J10" s="10">
+        <v>10</v>
+      </c>
+      <c r="K10" s="10">
+        <v>12</v>
+      </c>
       <c r="L10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="58"/>
+        <v>58</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:13">
       <c r="A11" s="36">
@@ -5635,23 +5832,34 @@
         <v>12018246146</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="53"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="G11" s="10">
+        <v>10</v>
+      </c>
+      <c r="H11" s="10">
+        <v>14</v>
+      </c>
+      <c r="I11" s="10">
+        <v>13</v>
+      </c>
+      <c r="J11" s="10">
+        <v>10</v>
+      </c>
+      <c r="K11" s="10">
+        <v>12</v>
+      </c>
       <c r="L11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="58"/>
+        <v>59</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:13">
       <c r="A12" s="36">
@@ -5661,23 +5869,34 @@
         <v>12018246154</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E12" s="53"/>
       <c r="F12" s="53"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="G12" s="10">
+        <v>10</v>
+      </c>
+      <c r="H12" s="10">
+        <v>14</v>
+      </c>
+      <c r="I12" s="10">
+        <v>12</v>
+      </c>
+      <c r="J12" s="10">
+        <v>10</v>
+      </c>
+      <c r="K12" s="10">
+        <v>12</v>
+      </c>
       <c r="L12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="58"/>
+        <v>58</v>
+      </c>
+      <c r="M12" s="58" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:13">
       <c r="A13" s="36">
@@ -5687,27 +5906,38 @@
         <v>12018246126</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+        <v>245</v>
+      </c>
+      <c r="G13" s="10">
+        <v>14</v>
+      </c>
+      <c r="H13" s="10">
+        <v>14</v>
+      </c>
+      <c r="I13" s="10">
+        <v>16</v>
+      </c>
+      <c r="J13" s="10">
+        <v>16</v>
+      </c>
+      <c r="K13" s="10">
+        <v>14</v>
+      </c>
       <c r="L13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="58"/>
+        <v>74</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:13">
       <c r="A14" s="36">
@@ -5717,23 +5947,34 @@
         <v>12018246113</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E14" s="53"/>
       <c r="F14" s="53"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="G14" s="10">
+        <v>14</v>
+      </c>
+      <c r="H14" s="10">
+        <v>14</v>
+      </c>
+      <c r="I14" s="10">
+        <v>12</v>
+      </c>
+      <c r="J14" s="10">
+        <v>16</v>
+      </c>
+      <c r="K14" s="10">
+        <v>14</v>
+      </c>
       <c r="L14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="58"/>
+        <v>70</v>
+      </c>
+      <c r="M14" s="58" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:13">
       <c r="A15" s="36">
@@ -5743,23 +5984,34 @@
         <v>12018246107</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="53"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="G15" s="10">
+        <v>16</v>
+      </c>
+      <c r="H15" s="10">
+        <v>16</v>
+      </c>
+      <c r="I15" s="10">
+        <v>14</v>
+      </c>
+      <c r="J15" s="10">
+        <v>14</v>
+      </c>
+      <c r="K15" s="10">
+        <v>14</v>
+      </c>
       <c r="L15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="58"/>
+        <v>74</v>
+      </c>
+      <c r="M15" s="58" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:13">
       <c r="A16" s="36">
@@ -5769,23 +6021,34 @@
         <v>12018246168</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="53"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="G16" s="10">
+        <v>14</v>
+      </c>
+      <c r="H16" s="10">
+        <v>16</v>
+      </c>
+      <c r="I16" s="10">
+        <v>16</v>
+      </c>
+      <c r="J16" s="10">
+        <v>14</v>
+      </c>
+      <c r="K16" s="10">
+        <v>12</v>
+      </c>
       <c r="L16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="58"/>
+        <v>72</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:13">
       <c r="A17" s="36">
@@ -5795,23 +6058,34 @@
         <v>12018246141</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E17" s="54"/>
       <c r="F17" s="54"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="G17" s="10">
+        <v>14</v>
+      </c>
+      <c r="H17" s="10">
+        <v>14</v>
+      </c>
+      <c r="I17" s="10">
+        <v>12</v>
+      </c>
+      <c r="J17" s="10">
+        <v>14</v>
+      </c>
+      <c r="K17" s="10">
+        <v>12</v>
+      </c>
       <c r="L17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="58"/>
+        <v>66</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:13">
       <c r="A18" s="36">
@@ -5821,25 +6095,34 @@
         <v>12018246095</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+        <v>261</v>
+      </c>
+      <c r="G18" s="10">
+        <v>12</v>
+      </c>
+      <c r="H18" s="10">
+        <v>14</v>
+      </c>
+      <c r="I18" s="10">
+        <v>12</v>
+      </c>
+      <c r="J18" s="10">
+        <v>14</v>
+      </c>
+      <c r="K18" s="10">
+        <v>12</v>
+      </c>
       <c r="L18" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="M18" s="58"/>
     </row>
@@ -5851,23 +6134,34 @@
         <v>12018246155</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="53"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="G19" s="10">
+        <v>13</v>
+      </c>
+      <c r="H19" s="10">
+        <v>12</v>
+      </c>
+      <c r="I19" s="10">
+        <v>12</v>
+      </c>
+      <c r="J19" s="10">
+        <v>12</v>
+      </c>
+      <c r="K19" s="10">
+        <v>13</v>
+      </c>
       <c r="L19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="58"/>
+        <v>62</v>
+      </c>
+      <c r="M19" s="58" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:13">
       <c r="A20" s="36">
@@ -5877,23 +6171,34 @@
         <v>12018246548</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="53"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="G20" s="10">
+        <v>14</v>
+      </c>
+      <c r="H20" s="10">
+        <v>16</v>
+      </c>
+      <c r="I20" s="10">
+        <v>14</v>
+      </c>
+      <c r="J20" s="10">
+        <v>14</v>
+      </c>
+      <c r="K20" s="10">
+        <v>14</v>
+      </c>
       <c r="L20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="58"/>
+        <v>72</v>
+      </c>
+      <c r="M20" s="58" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:13">
       <c r="A21" s="36">
@@ -5903,21 +6208,30 @@
         <v>12018246165</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="54"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="G21" s="10">
+        <v>13</v>
+      </c>
+      <c r="H21" s="10">
+        <v>14</v>
+      </c>
+      <c r="I21" s="10">
+        <v>12</v>
+      </c>
+      <c r="J21" s="10">
+        <v>14</v>
+      </c>
+      <c r="K21" s="10">
+        <v>12</v>
+      </c>
       <c r="L21" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M21" s="58"/>
     </row>
@@ -5929,25 +6243,34 @@
         <v>12018246163</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>203</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+        <v>245</v>
+      </c>
+      <c r="G22" s="10">
+        <v>14</v>
+      </c>
+      <c r="H22" s="10">
+        <v>13</v>
+      </c>
+      <c r="I22" s="10">
+        <v>13</v>
+      </c>
+      <c r="J22" s="10">
+        <v>16</v>
+      </c>
+      <c r="K22" s="10">
+        <v>14</v>
+      </c>
       <c r="L22" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M22" s="58"/>
     </row>
@@ -5959,23 +6282,34 @@
         <v>12018246104</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E23" s="53"/>
       <c r="F23" s="53"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="G23" s="10">
+        <v>16</v>
+      </c>
+      <c r="H23" s="10">
+        <v>14</v>
+      </c>
+      <c r="I23" s="10">
+        <v>14</v>
+      </c>
+      <c r="J23" s="10">
+        <v>14</v>
+      </c>
+      <c r="K23" s="10">
+        <v>16</v>
+      </c>
       <c r="L23" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="58"/>
+        <v>74</v>
+      </c>
+      <c r="M23" s="58" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:13">
       <c r="A24" s="36">
@@ -5985,23 +6319,34 @@
         <v>12018246069</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="53"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="G24" s="10">
+        <v>14</v>
+      </c>
+      <c r="H24" s="10">
+        <v>14</v>
+      </c>
+      <c r="I24" s="10">
+        <v>14</v>
+      </c>
+      <c r="J24" s="10">
+        <v>14</v>
+      </c>
+      <c r="K24" s="10">
+        <v>14</v>
+      </c>
       <c r="L24" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="58"/>
+        <v>70</v>
+      </c>
+      <c r="M24" s="58" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:13">
       <c r="A25" s="36">
@@ -6011,21 +6356,30 @@
         <v>12018246151</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="G25" s="10">
+        <v>14</v>
+      </c>
+      <c r="H25" s="10">
+        <v>12</v>
+      </c>
+      <c r="I25" s="10">
+        <v>13</v>
+      </c>
+      <c r="J25" s="10">
+        <v>14</v>
+      </c>
+      <c r="K25" s="10">
+        <v>14</v>
+      </c>
       <c r="L25" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="M25" s="58"/>
     </row>
@@ -6037,27 +6391,38 @@
         <v>12018246087</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E26" s="52" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+        <v>280</v>
+      </c>
+      <c r="G26" s="10">
+        <v>16</v>
+      </c>
+      <c r="H26" s="10">
+        <v>16</v>
+      </c>
+      <c r="I26" s="10">
+        <v>14</v>
+      </c>
+      <c r="J26" s="10">
+        <v>16</v>
+      </c>
+      <c r="K26" s="10">
+        <v>12</v>
+      </c>
       <c r="L26" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="58"/>
+        <v>74</v>
+      </c>
+      <c r="M26" s="58" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:13">
       <c r="A27" s="36">
@@ -6067,23 +6432,34 @@
         <v>12018246083</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
+      <c r="G27" s="10">
+        <v>18</v>
+      </c>
+      <c r="H27" s="10">
+        <v>16</v>
+      </c>
+      <c r="I27" s="10">
+        <v>16</v>
+      </c>
+      <c r="J27" s="10">
+        <v>18</v>
+      </c>
+      <c r="K27" s="10">
+        <v>16</v>
+      </c>
       <c r="L27" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="58"/>
+        <v>84</v>
+      </c>
+      <c r="M27" s="58" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:13">
       <c r="A28" s="36">
@@ -6093,21 +6469,30 @@
         <v>12018246073</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+      <c r="G28" s="10">
+        <v>18</v>
+      </c>
+      <c r="H28" s="10">
+        <v>16</v>
+      </c>
+      <c r="I28" s="10">
+        <v>15</v>
+      </c>
+      <c r="J28" s="10">
+        <v>18</v>
+      </c>
+      <c r="K28" s="10">
+        <v>16</v>
+      </c>
       <c r="L28" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="M28" s="58"/>
     </row>
@@ -6119,21 +6504,30 @@
         <v>12018245775</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E29" s="53"/>
       <c r="F29" s="53"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="G29" s="10">
+        <v>16</v>
+      </c>
+      <c r="H29" s="10">
+        <v>16</v>
+      </c>
+      <c r="I29" s="10">
+        <v>15</v>
+      </c>
+      <c r="J29" s="10">
+        <v>16</v>
+      </c>
+      <c r="K29" s="10">
+        <v>12</v>
+      </c>
       <c r="L29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="M29" s="58"/>
     </row>
@@ -6145,27 +6539,38 @@
         <v>12018246108</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="F30" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+        <v>290</v>
+      </c>
+      <c r="G30" s="10">
+        <v>12</v>
+      </c>
+      <c r="H30" s="10">
+        <v>14</v>
+      </c>
+      <c r="I30" s="10">
+        <v>14</v>
+      </c>
+      <c r="J30" s="10">
+        <v>16</v>
+      </c>
+      <c r="K30" s="10">
+        <v>13</v>
+      </c>
       <c r="L30" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="58"/>
+        <v>69</v>
+      </c>
+      <c r="M30" s="58" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:13">
       <c r="A31" s="36">
@@ -6175,23 +6580,34 @@
         <v>12018246133</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>92</v>
       </c>
       <c r="E31" s="53"/>
       <c r="F31" s="53"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="G31" s="10">
+        <v>13</v>
+      </c>
+      <c r="H31" s="10">
+        <v>12</v>
+      </c>
+      <c r="I31" s="10">
+        <v>12</v>
+      </c>
+      <c r="J31" s="10">
+        <v>14</v>
+      </c>
+      <c r="K31" s="10">
+        <v>12</v>
+      </c>
       <c r="L31" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="58"/>
+        <v>63</v>
+      </c>
+      <c r="M31" s="58" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:13">
       <c r="A32" s="36">
@@ -6201,23 +6617,34 @@
         <v>12018246061</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="E32" s="53"/>
       <c r="F32" s="53"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="G32" s="10">
+        <v>12</v>
+      </c>
+      <c r="H32" s="10">
+        <v>12</v>
+      </c>
+      <c r="I32" s="10">
+        <v>12</v>
+      </c>
+      <c r="J32" s="10">
+        <v>14</v>
+      </c>
+      <c r="K32" s="10">
+        <v>13</v>
+      </c>
       <c r="L32" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="58"/>
+        <v>63</v>
+      </c>
+      <c r="M32" s="58" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:13">
       <c r="A33" s="36">
@@ -6227,21 +6654,30 @@
         <v>12018246089</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="E33" s="54"/>
       <c r="F33" s="53"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+      <c r="G33" s="10">
+        <v>13</v>
+      </c>
+      <c r="H33" s="10">
+        <v>13</v>
+      </c>
+      <c r="I33" s="10">
+        <v>12</v>
+      </c>
+      <c r="J33" s="10">
+        <v>14</v>
+      </c>
+      <c r="K33" s="10">
+        <v>13</v>
+      </c>
       <c r="L33" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M33" s="58"/>
     </row>
@@ -6253,27 +6689,38 @@
         <v>12017245858</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="E34" s="52" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="F34" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
+        <v>261</v>
+      </c>
+      <c r="G34" s="10">
+        <v>14</v>
+      </c>
+      <c r="H34" s="10">
+        <v>16</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
+        <v>14</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0</v>
+      </c>
       <c r="L34" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="58"/>
+        <v>44</v>
+      </c>
+      <c r="M34" s="58" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:13">
       <c r="A35" s="36">
@@ -6283,23 +6730,34 @@
         <v>12018246065</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="E35" s="53"/>
       <c r="F35" s="53"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
+      <c r="G35" s="10">
+        <v>12</v>
+      </c>
+      <c r="H35" s="10">
+        <v>14</v>
+      </c>
+      <c r="I35" s="10">
+        <v>12</v>
+      </c>
+      <c r="J35" s="10">
+        <v>14</v>
+      </c>
+      <c r="K35" s="10">
+        <v>12</v>
+      </c>
       <c r="L35" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="58"/>
+        <v>64</v>
+      </c>
+      <c r="M35" s="58" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:13">
       <c r="A36" s="36">
@@ -6309,23 +6767,34 @@
         <v>12018246078</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="E36" s="53"/>
       <c r="F36" s="53"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
+      <c r="G36" s="10">
+        <v>14</v>
+      </c>
+      <c r="H36" s="10">
+        <v>16</v>
+      </c>
+      <c r="I36" s="10">
+        <v>12</v>
+      </c>
+      <c r="J36" s="10">
+        <v>12</v>
+      </c>
+      <c r="K36" s="10">
+        <v>12</v>
+      </c>
       <c r="L36" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="58"/>
+        <v>66</v>
+      </c>
+      <c r="M36" s="58" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:13">
       <c r="A37" s="36">
@@ -6335,23 +6804,34 @@
         <v>12017245867</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="E37" s="53"/>
       <c r="F37" s="54"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
+      <c r="G37" s="10">
+        <v>14</v>
+      </c>
+      <c r="H37" s="10">
+        <v>16</v>
+      </c>
+      <c r="I37" s="10">
+        <v>13</v>
+      </c>
+      <c r="J37" s="10">
+        <v>16</v>
+      </c>
+      <c r="K37" s="10">
+        <v>14</v>
+      </c>
       <c r="L37" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="58"/>
+        <v>73</v>
+      </c>
+      <c r="M37" s="58" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:13">
       <c r="A38" s="36">
@@ -6361,27 +6841,38 @@
         <v>12018246092</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="E38" s="52" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="F38" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
+      <c r="G38" s="10">
+        <v>12</v>
+      </c>
+      <c r="H38" s="10">
+        <v>13</v>
+      </c>
+      <c r="I38" s="10">
+        <v>14</v>
+      </c>
+      <c r="J38" s="10">
+        <v>14</v>
+      </c>
+      <c r="K38" s="10">
+        <v>12</v>
+      </c>
       <c r="L38" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="58"/>
+        <v>65</v>
+      </c>
+      <c r="M38" s="58" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:13">
       <c r="A39" s="36">
@@ -6391,23 +6882,34 @@
         <v>12018246100</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="E39" s="53"/>
       <c r="F39" s="53"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
+      <c r="G39" s="10">
+        <v>14</v>
+      </c>
+      <c r="H39" s="10">
+        <v>14</v>
+      </c>
+      <c r="I39" s="10">
+        <v>14</v>
+      </c>
+      <c r="J39" s="10">
+        <v>14</v>
+      </c>
+      <c r="K39" s="10">
+        <v>14</v>
+      </c>
       <c r="L39" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="58"/>
+        <v>70</v>
+      </c>
+      <c r="M39" s="58" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:13">
       <c r="A40" s="36">
@@ -6417,21 +6919,30 @@
         <v>12018246101</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="E40" s="53"/>
       <c r="F40" s="53"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
+      <c r="G40" s="10">
+        <v>14</v>
+      </c>
+      <c r="H40" s="10">
+        <v>13</v>
+      </c>
+      <c r="I40" s="10">
+        <v>13</v>
+      </c>
+      <c r="J40" s="10">
+        <v>14</v>
+      </c>
+      <c r="K40" s="10">
+        <v>14</v>
+      </c>
       <c r="L40" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="M40" s="58"/>
     </row>
@@ -6443,23 +6954,34 @@
         <v>12018246074</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="E41" s="53"/>
       <c r="F41" s="53"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
+      <c r="G41" s="10">
+        <v>12</v>
+      </c>
+      <c r="H41" s="10">
+        <v>12</v>
+      </c>
+      <c r="I41" s="10">
+        <v>14</v>
+      </c>
+      <c r="J41" s="10">
+        <v>14</v>
+      </c>
+      <c r="K41" s="10">
+        <v>12</v>
+      </c>
       <c r="L41" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="58"/>
+        <v>64</v>
+      </c>
+      <c r="M41" s="58" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:13">
       <c r="A42" s="10"/>
@@ -6478,19 +7000,19 @@
     </row>
     <row r="45" spans="3:7">
       <c r="C45" s="38" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="D45" s="38">
         <v>12018246114</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="F45" s="38" t="s">
         <v>74</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -6534,25 +7056,25 @@
   <sheetPr/>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M3"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.2181818181818" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="40.2222222222222" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.89090909090909" customWidth="1"/>
-    <col min="2" max="2" width="18.5545454545455" customWidth="1"/>
+    <col min="1" max="1" width="9.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="18.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="20.3363636363636" customWidth="1"/>
-    <col min="5" max="5" width="16.5545454545455" customWidth="1"/>
-    <col min="6" max="6" width="33.8909090909091" customWidth="1"/>
-    <col min="7" max="7" width="23.6636363636364" customWidth="1"/>
+    <col min="4" max="4" width="20.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="33.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="23.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="40.5545454545455" customWidth="1"/>
-    <col min="10" max="10" width="47.4454545454545" customWidth="1"/>
-    <col min="11" max="11" width="9.89090909090909" customWidth="1"/>
-    <col min="12" max="12" width="12.7818181818182" customWidth="1"/>
-    <col min="13" max="13" width="52.3363636363636" style="29" customWidth="1"/>
+    <col min="9" max="9" width="40.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="47.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="9.88888888888889" customWidth="1"/>
+    <col min="12" max="12" width="12.7777777777778" customWidth="1"/>
+    <col min="13" max="13" width="52.3333333333333" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -6562,7 +7084,7 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -6578,7 +7100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.5" spans="1:13">
+    <row r="2" ht="17.4" spans="1:13">
       <c r="A2" s="7"/>
       <c r="B2" s="32" t="s">
         <v>4</v>
@@ -6642,27 +7164,38 @@
         <v>12018246252</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="G4" s="41">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10">
+        <v>18</v>
+      </c>
+      <c r="J4" s="10">
+        <v>18</v>
+      </c>
+      <c r="K4" s="10">
+        <v>16</v>
+      </c>
       <c r="L4" s="48">
-        <f>SUM(G4:K4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="49"/>
+        <v>84</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="36">
@@ -6672,23 +7205,34 @@
         <v>12018246233</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="42"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="G5" s="41">
+        <v>14</v>
+      </c>
+      <c r="H5" s="10">
+        <v>14</v>
+      </c>
+      <c r="I5" s="10">
+        <v>12</v>
+      </c>
+      <c r="J5" s="10">
+        <v>18</v>
+      </c>
+      <c r="K5" s="10">
+        <v>14</v>
+      </c>
       <c r="L5" s="48">
-        <f t="shared" ref="L5:L41" si="0">SUM(G5:K5)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="36">
@@ -6698,23 +7242,34 @@
         <v>12018246261</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>78</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="G6" s="41">
+        <v>14</v>
+      </c>
+      <c r="H6" s="10">
+        <v>16</v>
+      </c>
+      <c r="I6" s="10">
+        <v>14</v>
+      </c>
+      <c r="J6" s="10">
+        <v>18</v>
+      </c>
+      <c r="K6" s="10">
+        <v>16</v>
+      </c>
       <c r="L6" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="36">
@@ -6724,23 +7279,34 @@
         <v>12018246267</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="G7" s="41">
+        <v>14</v>
+      </c>
+      <c r="H7" s="10">
+        <v>14</v>
+      </c>
+      <c r="I7" s="10">
+        <v>14</v>
+      </c>
+      <c r="J7" s="10">
+        <v>16</v>
+      </c>
+      <c r="K7" s="10">
+        <v>14</v>
+      </c>
       <c r="L7" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="36">
@@ -6750,27 +7316,38 @@
         <v>12018246262</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+        <v>245</v>
+      </c>
+      <c r="G8" s="41">
+        <v>14</v>
+      </c>
+      <c r="H8" s="10">
+        <v>16</v>
+      </c>
+      <c r="I8" s="10">
+        <v>14</v>
+      </c>
+      <c r="J8" s="10">
+        <v>16</v>
+      </c>
+      <c r="K8" s="10">
+        <v>14</v>
+      </c>
       <c r="L8" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="36">
@@ -6780,21 +7357,30 @@
         <v>12018246232</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="G9" s="41">
+        <v>12</v>
+      </c>
+      <c r="H9" s="10">
+        <v>16</v>
+      </c>
+      <c r="I9" s="10">
+        <v>12</v>
+      </c>
+      <c r="J9" s="10">
+        <v>16</v>
+      </c>
+      <c r="K9" s="10">
+        <v>12</v>
+      </c>
       <c r="L9" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="M9" s="10"/>
     </row>
@@ -6806,23 +7392,34 @@
         <v>12018246220</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="G10" s="41">
+        <v>12</v>
+      </c>
+      <c r="H10" s="10">
+        <v>16</v>
+      </c>
+      <c r="I10" s="10">
+        <v>14</v>
+      </c>
+      <c r="J10" s="10">
+        <v>16</v>
+      </c>
+      <c r="K10" s="10">
+        <v>12</v>
+      </c>
       <c r="L10" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="36">
@@ -6832,23 +7429,34 @@
         <v>12018246204</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="G11" s="41">
+        <v>12</v>
+      </c>
+      <c r="H11" s="10">
+        <v>14</v>
+      </c>
+      <c r="I11" s="10">
+        <v>12</v>
+      </c>
+      <c r="J11" s="10">
+        <v>14</v>
+      </c>
+      <c r="K11" s="10">
+        <v>12</v>
+      </c>
       <c r="L11" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="36">
@@ -6858,27 +7466,38 @@
         <v>12018246235</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+        <v>290</v>
+      </c>
+      <c r="G12" s="41">
+        <v>14</v>
+      </c>
+      <c r="H12" s="10">
+        <v>16</v>
+      </c>
+      <c r="I12" s="10">
+        <v>14</v>
+      </c>
+      <c r="J12" s="10">
+        <v>16</v>
+      </c>
+      <c r="K12" s="10">
+        <v>14</v>
+      </c>
       <c r="L12" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="36">
@@ -6888,23 +7507,34 @@
         <v>12018246269</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="G13" s="41">
+        <v>14</v>
+      </c>
+      <c r="H13" s="10">
+        <v>16</v>
+      </c>
+      <c r="I13" s="10">
+        <v>14</v>
+      </c>
+      <c r="J13" s="10">
+        <v>16</v>
+      </c>
+      <c r="K13" s="10">
+        <v>14</v>
+      </c>
       <c r="L13" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="36">
@@ -6914,23 +7544,34 @@
         <v>12018246244</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="G14" s="41">
+        <v>12</v>
+      </c>
+      <c r="H14" s="10">
+        <v>14</v>
+      </c>
+      <c r="I14" s="10">
+        <v>12</v>
+      </c>
+      <c r="J14" s="10">
+        <v>14</v>
+      </c>
+      <c r="K14" s="10">
+        <v>12</v>
+      </c>
       <c r="L14" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="36">
@@ -6940,21 +7581,30 @@
         <v>12018246268</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="43"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="G15" s="41">
+        <v>14</v>
+      </c>
+      <c r="H15" s="10">
+        <v>16</v>
+      </c>
+      <c r="I15" s="10">
+        <v>12</v>
+      </c>
+      <c r="J15" s="10">
+        <v>14</v>
+      </c>
+      <c r="K15" s="10">
+        <v>12</v>
+      </c>
       <c r="L15" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="M15" s="10"/>
     </row>
@@ -6966,27 +7616,38 @@
         <v>12018246207</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+        <v>280</v>
+      </c>
+      <c r="G16" s="41">
+        <v>14</v>
+      </c>
+      <c r="H16" s="10">
+        <v>14</v>
+      </c>
+      <c r="I16" s="10">
+        <v>12</v>
+      </c>
+      <c r="J16" s="10">
+        <v>14</v>
+      </c>
+      <c r="K16" s="10">
+        <v>14</v>
+      </c>
       <c r="L16" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="36">
@@ -6996,23 +7657,34 @@
         <v>12018246210</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="G17" s="41">
+        <v>14</v>
+      </c>
+      <c r="H17" s="10">
+        <v>16</v>
+      </c>
+      <c r="I17" s="10">
+        <v>14</v>
+      </c>
+      <c r="J17" s="10">
+        <v>16</v>
+      </c>
+      <c r="K17" s="10">
+        <v>14</v>
+      </c>
       <c r="L17" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="36">
@@ -7022,23 +7694,34 @@
         <v>12018246265</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="G18" s="41">
+        <v>16</v>
+      </c>
+      <c r="H18" s="10">
+        <v>16</v>
+      </c>
+      <c r="I18" s="10">
+        <v>14</v>
+      </c>
+      <c r="J18" s="10">
+        <v>16</v>
+      </c>
+      <c r="K18" s="10">
+        <v>12</v>
+      </c>
       <c r="L18" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="36">
@@ -7048,23 +7731,34 @@
         <v>12018246222</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="43"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="G19" s="41">
+        <v>12</v>
+      </c>
+      <c r="H19" s="10">
+        <v>12</v>
+      </c>
+      <c r="I19" s="10">
+        <v>12</v>
+      </c>
+      <c r="J19" s="10">
+        <v>14</v>
+      </c>
+      <c r="K19" s="10">
+        <v>14</v>
+      </c>
       <c r="L19" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="36">
@@ -7074,27 +7768,38 @@
         <v>12018246255</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+        <v>280</v>
+      </c>
+      <c r="G20" s="41">
+        <v>16</v>
+      </c>
+      <c r="H20" s="10">
+        <v>16</v>
+      </c>
+      <c r="I20" s="10">
+        <v>16</v>
+      </c>
+      <c r="J20" s="10">
+        <v>18</v>
+      </c>
+      <c r="K20" s="10">
+        <v>16</v>
+      </c>
       <c r="L20" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="36">
@@ -7104,23 +7809,34 @@
         <v>12018246201</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="G21" s="41">
+        <v>16</v>
+      </c>
+      <c r="H21" s="10">
+        <v>16</v>
+      </c>
+      <c r="I21" s="10">
+        <v>18</v>
+      </c>
+      <c r="J21" s="10">
+        <v>18</v>
+      </c>
+      <c r="K21" s="10">
+        <v>18</v>
+      </c>
       <c r="L21" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="10"/>
+        <v>86</v>
+      </c>
+      <c r="M21" s="49" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="36">
@@ -7130,21 +7846,30 @@
         <v>12018246238</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="G22" s="41">
+        <v>14</v>
+      </c>
+      <c r="H22" s="10">
+        <v>14</v>
+      </c>
+      <c r="I22" s="10">
+        <v>14</v>
+      </c>
+      <c r="J22" s="10">
+        <v>16</v>
+      </c>
+      <c r="K22" s="10">
+        <v>14</v>
+      </c>
       <c r="L22" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="M22" s="10"/>
     </row>
@@ -7156,23 +7881,34 @@
         <v>12018246212</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="G23" s="41">
+        <v>16</v>
+      </c>
+      <c r="H23" s="10">
+        <v>16</v>
+      </c>
+      <c r="I23" s="10">
+        <v>14</v>
+      </c>
+      <c r="J23" s="10">
+        <v>16</v>
+      </c>
+      <c r="K23" s="10">
+        <v>16</v>
+      </c>
       <c r="L23" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="36">
@@ -7182,21 +7918,30 @@
         <v>12017246053</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="E24" s="42"/>
       <c r="F24" s="42"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="G24" s="41">
+        <v>12</v>
+      </c>
+      <c r="H24" s="10">
+        <v>14</v>
+      </c>
+      <c r="I24" s="10">
+        <v>12</v>
+      </c>
+      <c r="J24" s="10">
+        <v>14</v>
+      </c>
+      <c r="K24" s="10">
+        <v>12</v>
+      </c>
       <c r="L24" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="M24" s="10"/>
     </row>
@@ -7208,27 +7953,38 @@
         <v>12018245934</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+        <v>245</v>
+      </c>
+      <c r="G25" s="41">
+        <v>16</v>
+      </c>
+      <c r="H25" s="10">
+        <v>16</v>
+      </c>
+      <c r="I25" s="10">
+        <v>16</v>
+      </c>
+      <c r="J25" s="10">
+        <v>14</v>
+      </c>
+      <c r="K25" s="10">
+        <v>14</v>
+      </c>
       <c r="L25" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="36">
@@ -7238,23 +7994,34 @@
         <v>12018245921</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+      <c r="G26" s="41">
+        <v>16</v>
+      </c>
+      <c r="H26" s="10">
+        <v>14</v>
+      </c>
+      <c r="I26" s="10">
+        <v>16</v>
+      </c>
+      <c r="J26" s="10">
+        <v>14</v>
+      </c>
+      <c r="K26" s="10">
+        <v>12</v>
+      </c>
       <c r="L26" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="36">
@@ -7264,23 +8031,34 @@
         <v>12018245917</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
+      <c r="G27" s="41">
+        <v>14</v>
+      </c>
+      <c r="H27" s="10">
+        <v>16</v>
+      </c>
+      <c r="I27" s="10">
+        <v>16</v>
+      </c>
+      <c r="J27" s="10">
+        <v>14</v>
+      </c>
+      <c r="K27" s="10">
+        <v>14</v>
+      </c>
       <c r="L27" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="36">
@@ -7290,23 +8068,34 @@
         <v>12018245948</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="43"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+      <c r="G28" s="41">
+        <v>14</v>
+      </c>
+      <c r="H28" s="10">
+        <v>14</v>
+      </c>
+      <c r="I28" s="10">
+        <v>16</v>
+      </c>
+      <c r="J28" s="10">
+        <v>14</v>
+      </c>
+      <c r="K28" s="10">
+        <v>14</v>
+      </c>
       <c r="L28" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="36">
@@ -7316,25 +8105,34 @@
         <v>12018246225</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>92</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+        <v>290</v>
+      </c>
+      <c r="G29" s="41">
+        <v>14</v>
+      </c>
+      <c r="H29" s="10">
+        <v>14</v>
+      </c>
+      <c r="I29" s="10">
+        <v>12</v>
+      </c>
+      <c r="J29" s="10">
+        <v>14</v>
+      </c>
+      <c r="K29" s="10">
+        <v>12</v>
+      </c>
       <c r="L29" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="M29" s="10"/>
     </row>
@@ -7346,23 +8144,34 @@
         <v>12018246221</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+      <c r="G30" s="41">
+        <v>12</v>
+      </c>
+      <c r="H30" s="10">
+        <v>14</v>
+      </c>
+      <c r="I30" s="10">
+        <v>12</v>
+      </c>
+      <c r="J30" s="10">
+        <v>12</v>
+      </c>
+      <c r="K30" s="10">
+        <v>14</v>
+      </c>
       <c r="L30" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="36">
@@ -7372,23 +8181,34 @@
         <v>12018246241</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="G31" s="41">
+        <v>12</v>
+      </c>
+      <c r="H31" s="10">
+        <v>14</v>
+      </c>
+      <c r="I31" s="10">
+        <v>12</v>
+      </c>
+      <c r="J31" s="10">
+        <v>12</v>
+      </c>
+      <c r="K31" s="10">
+        <v>12</v>
+      </c>
       <c r="L31" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="36">
@@ -7398,23 +8218,34 @@
         <v>12018246208</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="43"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="G32" s="41">
+        <v>14</v>
+      </c>
+      <c r="H32" s="10">
+        <v>14</v>
+      </c>
+      <c r="I32" s="10">
+        <v>14</v>
+      </c>
+      <c r="J32" s="10">
+        <v>12</v>
+      </c>
+      <c r="K32" s="10">
+        <v>14</v>
+      </c>
       <c r="L32" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="36">
@@ -7424,25 +8255,34 @@
         <v>12018246227</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="G33" s="41"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+        <v>236</v>
+      </c>
+      <c r="G33" s="41">
+        <v>12</v>
+      </c>
+      <c r="H33" s="10">
+        <v>14</v>
+      </c>
+      <c r="I33" s="10">
+        <v>12</v>
+      </c>
+      <c r="J33" s="10">
+        <v>14</v>
+      </c>
+      <c r="K33" s="10">
+        <v>12</v>
+      </c>
       <c r="L33" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="M33" s="10"/>
     </row>
@@ -7454,23 +8294,34 @@
         <v>12018246215</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="E34" s="42"/>
       <c r="F34" s="42"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
+      <c r="G34" s="41">
+        <v>14</v>
+      </c>
+      <c r="H34" s="10">
+        <v>16</v>
+      </c>
+      <c r="I34" s="10">
+        <v>14</v>
+      </c>
+      <c r="J34" s="10">
+        <v>14</v>
+      </c>
+      <c r="K34" s="10">
+        <v>12</v>
+      </c>
       <c r="L34" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="36">
@@ -7480,21 +8331,30 @@
         <v>12018246223</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="E35" s="42"/>
       <c r="F35" s="42"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
+      <c r="G35" s="41">
+        <v>12</v>
+      </c>
+      <c r="H35" s="10">
+        <v>14</v>
+      </c>
+      <c r="I35" s="10">
+        <v>12</v>
+      </c>
+      <c r="J35" s="10">
+        <v>14</v>
+      </c>
+      <c r="K35" s="10">
+        <v>14</v>
+      </c>
       <c r="L35" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="M35" s="10"/>
     </row>
@@ -7506,23 +8366,34 @@
         <v>12017246001</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="E36" s="43"/>
       <c r="F36" s="43"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
+      <c r="G36" s="41">
+        <v>12</v>
+      </c>
+      <c r="H36" s="10">
+        <v>14</v>
+      </c>
+      <c r="I36" s="10">
+        <v>12</v>
+      </c>
+      <c r="J36" s="10">
+        <v>16</v>
+      </c>
+      <c r="K36" s="10">
+        <v>12</v>
+      </c>
       <c r="L36" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="36">
@@ -7532,27 +8403,38 @@
         <v>12018246257</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="F37" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="41">
+        <v>16</v>
+      </c>
+      <c r="H37" s="10">
+        <v>16</v>
+      </c>
+      <c r="I37" s="10">
+        <v>14</v>
+      </c>
+      <c r="J37" s="10">
+        <v>14</v>
+      </c>
+      <c r="K37" s="10">
+        <v>14</v>
+      </c>
+      <c r="L37" s="48">
+        <v>74</v>
+      </c>
+      <c r="M37" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="36">
@@ -7562,23 +8444,34 @@
         <v>12018246263</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
+      <c r="G38" s="41">
+        <v>14</v>
+      </c>
+      <c r="H38" s="10">
+        <v>14</v>
+      </c>
+      <c r="I38" s="10">
+        <v>14</v>
+      </c>
+      <c r="J38" s="10">
+        <v>14</v>
+      </c>
+      <c r="K38" s="10">
+        <v>14</v>
+      </c>
       <c r="L38" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="36">
@@ -7588,23 +8481,34 @@
         <v>12018246217</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
+      <c r="G39" s="41">
+        <v>14</v>
+      </c>
+      <c r="H39" s="10">
+        <v>14</v>
+      </c>
+      <c r="I39" s="10">
+        <v>12</v>
+      </c>
+      <c r="J39" s="10">
+        <v>14</v>
+      </c>
+      <c r="K39" s="10">
+        <v>12</v>
+      </c>
       <c r="L39" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="36">
@@ -7614,23 +8518,34 @@
         <v>12018246219</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="E40" s="42"/>
       <c r="F40" s="42"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
+      <c r="G40" s="41">
+        <v>14</v>
+      </c>
+      <c r="H40" s="10">
+        <v>12</v>
+      </c>
+      <c r="I40" s="10">
+        <v>12</v>
+      </c>
+      <c r="J40" s="10">
+        <v>12</v>
+      </c>
+      <c r="K40" s="10">
+        <v>14</v>
+      </c>
       <c r="L40" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="36">
@@ -7640,23 +8555,34 @@
         <v>12018246206</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
+      <c r="G41" s="41">
+        <v>16</v>
+      </c>
+      <c r="H41" s="10">
+        <v>14</v>
+      </c>
+      <c r="I41" s="10">
+        <v>12</v>
+      </c>
+      <c r="J41" s="10">
+        <v>14</v>
+      </c>
+      <c r="K41" s="10">
+        <v>14</v>
+      </c>
       <c r="L41" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>252</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -7698,30 +8624,30 @@
   <sheetPr/>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="D9" workbookViewId="0">
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="55.6636363636364" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="55.6666666666667" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.3363636363636" customWidth="1"/>
-    <col min="2" max="2" width="13.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="20.3363636363636" customWidth="1"/>
-    <col min="4" max="4" width="17.4454545454545" customWidth="1"/>
-    <col min="5" max="5" width="16.5545454545455" customWidth="1"/>
-    <col min="6" max="6" width="29.2181818181818" customWidth="1"/>
-    <col min="7" max="7" width="18.7818181818182" customWidth="1"/>
-    <col min="8" max="8" width="19.2181818181818" customWidth="1"/>
-    <col min="9" max="9" width="32.5545454545455" customWidth="1"/>
-    <col min="10" max="10" width="38.7818181818182" customWidth="1"/>
-    <col min="11" max="11" width="13.4454545454545" customWidth="1"/>
-    <col min="12" max="12" width="16.3363636363636" customWidth="1"/>
-    <col min="13" max="13" width="55.2181818181818" customWidth="1"/>
+    <col min="1" max="1" width="11.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="16.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="29.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="18.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="19.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="32.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="38.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="13.4444444444444" customWidth="1"/>
+    <col min="12" max="12" width="16.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="55.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:13">
+    <row r="1" ht="20.4" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7747,18 +8673,18 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>8</v>
@@ -7771,7 +8697,7 @@
       </c>
       <c r="M2" s="28"/>
     </row>
-    <row r="3" ht="17.5" spans="1:13">
+    <row r="3" ht="17.4" spans="1:13">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>4</v>
@@ -7788,7 +8714,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="28"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" ht="15.15" spans="1:13">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -7823,16 +8749,16 @@
         <v>12018246231</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="G5" s="10">
         <v>12</v>
@@ -7863,10 +8789,10 @@
         <v>12018246250</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
@@ -7899,10 +8825,10 @@
         <v>12018243770</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
@@ -7927,7 +8853,7 @@
       </c>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" ht="15.15" spans="1:13">
       <c r="A8" s="19">
         <v>4</v>
       </c>
@@ -7952,16 +8878,16 @@
         <v>12018246260</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="G9" s="10">
         <v>14</v>
@@ -7992,10 +8918,10 @@
         <v>12018246264</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
@@ -8031,7 +8957,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
@@ -8056,7 +8982,7 @@
       </c>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" ht="14.75" spans="1:13">
+    <row r="12" ht="15.15" spans="1:13">
       <c r="A12" s="19">
         <v>8</v>
       </c>
@@ -8064,10 +8990,10 @@
         <v>12018246254</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
@@ -8100,16 +9026,16 @@
         <v>12018246216</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="G13" s="10">
         <v>9</v>
@@ -8140,10 +9066,10 @@
         <v>12018246209</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="18"/>
@@ -8176,10 +9102,10 @@
         <v>12018246256</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
@@ -8204,7 +9130,7 @@
       </c>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" ht="14.75" spans="1:13">
+    <row r="16" ht="15.15" spans="1:13">
       <c r="A16" s="19">
         <v>12</v>
       </c>
@@ -8212,10 +9138,10 @@
         <v>12018246228</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="22"/>
@@ -8248,16 +9174,16 @@
         <v>12018246246</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="G17" s="10">
         <v>13</v>
@@ -8288,10 +9214,10 @@
         <v>12018246266</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="24"/>
@@ -8324,10 +9250,10 @@
         <v>12018246237</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="24"/>
@@ -8352,7 +9278,7 @@
       </c>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" ht="14.75" spans="1:13">
+    <row r="20" ht="15.15" spans="1:13">
       <c r="A20" s="19">
         <v>16</v>
       </c>
@@ -8360,10 +9286,10 @@
         <v>12018246270</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="25"/>
@@ -8396,16 +9322,16 @@
         <v>12018246218</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="G21" s="10">
         <v>11</v>
@@ -8436,10 +9362,10 @@
         <v>12018246236</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="24"/>
@@ -8472,10 +9398,10 @@
         <v>12018246253</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="24"/>
@@ -8500,7 +9426,7 @@
       </c>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" ht="14.75" spans="1:13">
+    <row r="24" ht="15.15" spans="1:13">
       <c r="A24" s="19">
         <v>20</v>
       </c>
@@ -8508,10 +9434,10 @@
         <v>12018246248</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="25"/>
@@ -8544,16 +9470,16 @@
         <v>12018246247</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="G25" s="10">
         <v>13</v>
@@ -8584,10 +9510,10 @@
         <v>12018246226</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="24"/>
@@ -8623,7 +9549,7 @@
         <v>62</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="24"/>
@@ -8648,7 +9574,7 @@
       </c>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" ht="15.15" spans="1:13">
       <c r="A28" s="19">
         <v>24</v>
       </c>
@@ -8673,16 +9599,16 @@
         <v>12018246242</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="G29" s="10">
         <v>13</v>
@@ -8713,10 +9639,10 @@
         <v>12018246258</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="24"/>
@@ -8749,10 +9675,10 @@
         <v>12018246229</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="24"/>
@@ -8777,7 +9703,7 @@
       </c>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" ht="14.75" spans="1:13">
+    <row r="32" ht="15.15" spans="1:13">
       <c r="A32" s="19">
         <v>28</v>
       </c>
@@ -8785,10 +9711,10 @@
         <v>12018246224</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="25"/>
@@ -8821,16 +9747,16 @@
         <v>12018246214</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="G33" s="10">
         <v>14</v>
@@ -8864,7 +9790,7 @@
         <v>48</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="24"/>
@@ -8897,10 +9823,10 @@
         <v>12018246202</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="24"/>
@@ -8925,7 +9851,7 @@
       </c>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" ht="14.75" spans="1:13">
+    <row r="36" ht="15.15" spans="1:13">
       <c r="A36" s="19">
         <v>32</v>
       </c>
@@ -8933,10 +9859,10 @@
         <v>12018246234</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="25"/>
@@ -8969,16 +9895,16 @@
         <v>12018246259</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="G37" s="10">
         <v>12</v>
@@ -9009,10 +9935,10 @@
         <v>12018246240</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="24"/>
@@ -9045,10 +9971,10 @@
         <v>12018246563</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="24"/>
@@ -9073,7 +9999,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" ht="14.75" spans="1:13">
+    <row r="40" ht="15.15" spans="1:13">
       <c r="A40" s="19">
         <v>36</v>
       </c>
@@ -9084,7 +10010,7 @@
         <v>52</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="25"/>
